--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_4_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_4_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>319564.6299102907</v>
+        <v>187044.8582268514</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>839211.7886327845</v>
+        <v>822601.5854013227</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23215346.97129067</v>
+        <v>23204973.87243717</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5409769.188035049</v>
+        <v>5418068.119695826</v>
       </c>
     </row>
     <row r="11">
@@ -1381,22 +1381,22 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>44.89751327605699</v>
       </c>
       <c r="G11" t="n">
-        <v>32.06905130568487</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>32.06905130568487</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>32.06905130568487</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>28.24642039004723</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>12.46854898344239</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1426,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>44.89751327605699</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>27.0771807101086</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>44.89751327605699</v>
       </c>
     </row>
     <row r="12">
@@ -1448,22 +1448,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>44.89751327605699</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>39.545729693551</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>32.06905130568487</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>32.06905130568487</v>
+        <v>44.89751327605699</v>
       </c>
       <c r="G12" t="n">
-        <v>32.06905130568487</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>28.24642039004723</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>44.89751327605699</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1618,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>44.89751327605691</v>
       </c>
       <c r="G14" t="n">
-        <v>28.24642039004723</v>
+        <v>44.89751327605691</v>
       </c>
       <c r="H14" t="n">
-        <v>32.06905130568487</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>32.06905130568487</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>32.06905130568487</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>39.54572969355095</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>44.89751327605691</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1688,13 +1688,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>44.89751327605691</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>44.89751327605691</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>44.89751327605691</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>32.06905130568487</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1745,13 +1745,13 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>32.06905130568487</v>
+        <v>39.54572969355095</v>
       </c>
       <c r="W15" t="n">
-        <v>32.06905130568487</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>28.24642039004723</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1846,19 +1846,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>60.42827915574172</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>68.60612983167768</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>68.60612983167768</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>68.60612983167768</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>57.77858534342315</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,13 +1888,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>65.59784893667481</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.59784893667481</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>65.59784893667481</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>68.60612983167768</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>68.60612983167768</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>68.60612983167768</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>65.59784893667481</v>
+        <v>60.42827915574172</v>
       </c>
       <c r="S18" t="n">
-        <v>65.59784893667481</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>65.59784893667481</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>57.77858534342315</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>68.60612983167768</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>70.63388008681088</v>
+        <v>60.42827915574172</v>
       </c>
       <c r="E20" t="n">
-        <v>70.63388008681088</v>
+        <v>68.60612983167768</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>68.60612983167768</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2125,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>69.95091710421605</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.89728456305782</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2162,16 +2162,16 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>68.60612983167768</v>
       </c>
       <c r="D21" t="n">
-        <v>70.63388008681088</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>68.60612983167768</v>
       </c>
       <c r="F21" t="n">
-        <v>70.63388008681088</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>24.07180525997875</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2222,13 +2222,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>36.35647389576299</v>
       </c>
       <c r="X21" t="n">
-        <v>62.21432158046297</v>
+        <v>68.60612983167768</v>
       </c>
       <c r="Y21" t="n">
-        <v>70.63388008681088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2323,16 +2323,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>78.11891606293409</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>78.11891606293409</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>78.11891606293409</v>
+        <v>78.11891606293396</v>
       </c>
       <c r="G23" t="n">
-        <v>68.80714126823231</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>78.11891606293396</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2374,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>78.11891606293396</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>68.80714126823221</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2396,25 +2396,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>78.11891606293409</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>78.11891606293396</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>78.11891606293409</v>
+        <v>78.11891606293396</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>68.80714126823231</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2441,10 +2441,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>22.16023228977369</v>
       </c>
       <c r="R24" t="n">
-        <v>78.11891606293409</v>
+        <v>78.11891606293396</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>46.64690897845855</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>68.80714126823226</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>68.80714126823221</v>
       </c>
       <c r="F26" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293396</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>78.11891606293396</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>78.11891606293396</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>46.64690897845853</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>78.11891606293396</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2678,22 +2678,22 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>22.16023228977369</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>78.11891606293396</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>78.11891606293396</v>
       </c>
       <c r="T27" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>68.80714126823229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2794,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>68.80714126823221</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>78.11891606293396</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2836,25 +2836,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>67.62515116304431</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>78.11891606293409</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>78.11891606293409</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>1.181990105187911</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>78.11891606293396</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>78.11891606293396</v>
       </c>
       <c r="W29" t="n">
-        <v>78.11891606293409</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>78.11891606293409</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2885,10 +2885,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>68.80714126823231</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>78.11891606293409</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>78.11891606293396</v>
       </c>
       <c r="S30" t="n">
-        <v>78.11891606293409</v>
+        <v>78.11891606293396</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>68.80714126823221</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>78.11891606293396</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>68.80714126823231</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,10 +3037,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>78.11891606293409</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>78.11891606293396</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1.181990105187974</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>67.62515116304431</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>78.11891606293396</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>78.11891606293409</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>78.11891606293409</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>78.11891606293396</v>
       </c>
     </row>
     <row r="33">
@@ -3152,28 +3152,28 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.16023228977369</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>78.11891606293396</v>
       </c>
       <c r="S33" t="n">
-        <v>46.64690897845863</v>
+        <v>78.11891606293396</v>
       </c>
       <c r="T33" t="n">
-        <v>78.11891606293409</v>
+        <v>78.11891606293396</v>
       </c>
       <c r="U33" t="n">
-        <v>78.11891606293409</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>68.80714126823221</v>
       </c>
       <c r="X33" t="n">
-        <v>78.11891606293409</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.181990105187968</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>67.62515116304431</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>78.11891606293403</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>78.11891606293403</v>
       </c>
       <c r="Y35" t="n">
-        <v>68.80714126823226</v>
+        <v>78.11891606293403</v>
       </c>
     </row>
     <row r="36">
@@ -3344,19 +3344,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293403</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>78.11891606293403</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3401,19 +3401,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>68.80714126823226</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>78.11891606293403</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>68.80714126823226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>78.11891606293403</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>78.11891606293403</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>78.11891606293403</v>
       </c>
       <c r="E38" t="n">
-        <v>68.80714126823227</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>68.80714126823226</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>78.11891606293402</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3562,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>78.11891606293402</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>78.11891606293402</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3581,19 +3581,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>68.80714126823226</v>
       </c>
       <c r="C39" t="n">
-        <v>78.11891606293402</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>78.11891606293402</v>
+        <v>78.11891606293403</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>10.78637450103815</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>58.02076676719412</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3635,10 +3635,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>78.11891606293402</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>78.11891606293403</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>78.11891606293403</v>
       </c>
     </row>
     <row r="40">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>78.11891606293403</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>68.594885808589</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>68.594885808589</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>68.594885808589</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>67.62515116304431</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>60.41837542020521</v>
       </c>
       <c r="W41" t="n">
-        <v>78.11891606293403</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>1.181990105187954</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>78.11891606293403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>68.594885808589</v>
       </c>
       <c r="C42" t="n">
-        <v>78.11891606293403</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>46.64690897845858</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.16023228977369</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>68.594885808589</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3881,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>78.11891606293403</v>
+        <v>60.41837542020521</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>68.594885808589</v>
       </c>
       <c r="Y42" t="n">
-        <v>78.11891606293403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>73.08288491279797</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>73.08288491279797</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>61.82075743261788</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4021,16 +4021,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>64.37140503119248</v>
+        <v>67.19250379617631</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>68.594885808589</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>73.08288491279797</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>68.594885808589</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>42.21117274141879</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.16023228977369</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4112,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>73.08288491279797</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>73.08288491279797</v>
+        <v>68.594885808589</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>68.594885808589</v>
       </c>
       <c r="X45" t="n">
-        <v>73.08288491279797</v>
+        <v>68.594885808589</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>60.41837542020522</v>
       </c>
     </row>
     <row r="46">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>128.2762052227395</v>
+        <v>61.53731849592232</v>
       </c>
       <c r="C11" t="n">
-        <v>128.2762052227395</v>
+        <v>61.53731849592232</v>
       </c>
       <c r="D11" t="n">
-        <v>128.2762052227395</v>
+        <v>61.53731849592232</v>
       </c>
       <c r="E11" t="n">
-        <v>128.2762052227395</v>
+        <v>61.53731849592232</v>
       </c>
       <c r="F11" t="n">
-        <v>128.2762052227395</v>
+        <v>16.18629498475364</v>
       </c>
       <c r="G11" t="n">
-        <v>95.88322410588606</v>
+        <v>16.18629498475364</v>
       </c>
       <c r="H11" t="n">
-        <v>63.49024298903266</v>
+        <v>16.18629498475364</v>
       </c>
       <c r="I11" t="n">
-        <v>31.09726187217926</v>
+        <v>16.18629498475364</v>
       </c>
       <c r="J11" t="n">
-        <v>2.565524104454789</v>
+        <v>16.18629498475364</v>
       </c>
       <c r="K11" t="n">
-        <v>2.565524104454789</v>
+        <v>3.59180106208456</v>
       </c>
       <c r="L11" t="n">
-        <v>34.31388489708281</v>
+        <v>46.24443867433868</v>
       </c>
       <c r="M11" t="n">
-        <v>66.06224568971082</v>
+        <v>90.6929768176351</v>
       </c>
       <c r="N11" t="n">
-        <v>96.52784443011144</v>
+        <v>135.1415149609315</v>
       </c>
       <c r="O11" t="n">
-        <v>128.2762052227395</v>
+        <v>179.5900531042279</v>
       </c>
       <c r="P11" t="n">
-        <v>128.2762052227395</v>
+        <v>179.590053104228</v>
       </c>
       <c r="Q11" t="n">
-        <v>128.2762052227395</v>
+        <v>179.590053104228</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2762052227395</v>
+        <v>179.590053104228</v>
       </c>
       <c r="S11" t="n">
-        <v>128.2762052227395</v>
+        <v>179.590053104228</v>
       </c>
       <c r="T11" t="n">
-        <v>128.2762052227395</v>
+        <v>179.590053104228</v>
       </c>
       <c r="U11" t="n">
-        <v>128.2762052227395</v>
+        <v>134.2390295930593</v>
       </c>
       <c r="V11" t="n">
-        <v>128.2762052227395</v>
+        <v>106.888342007091</v>
       </c>
       <c r="W11" t="n">
-        <v>128.2762052227395</v>
+        <v>106.888342007091</v>
       </c>
       <c r="X11" t="n">
-        <v>128.2762052227395</v>
+        <v>106.888342007091</v>
       </c>
       <c r="Y11" t="n">
-        <v>128.2762052227395</v>
+        <v>61.53731849592232</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>128.2762052227395</v>
+        <v>88.88800608189061</v>
       </c>
       <c r="C12" t="n">
-        <v>128.2762052227395</v>
+        <v>48.94282457325323</v>
       </c>
       <c r="D12" t="n">
-        <v>128.2762052227395</v>
+        <v>48.94282457325323</v>
       </c>
       <c r="E12" t="n">
-        <v>95.88322410588606</v>
+        <v>48.94282457325323</v>
       </c>
       <c r="F12" t="n">
-        <v>63.49024298903266</v>
+        <v>3.59180106208456</v>
       </c>
       <c r="G12" t="n">
-        <v>31.09726187217926</v>
+        <v>3.59180106208456</v>
       </c>
       <c r="H12" t="n">
-        <v>31.09726187217926</v>
+        <v>3.59180106208456</v>
       </c>
       <c r="I12" t="n">
-        <v>31.09726187217926</v>
+        <v>3.59180106208456</v>
       </c>
       <c r="J12" t="n">
-        <v>2.565524104454789</v>
+        <v>3.59180106208456</v>
       </c>
       <c r="K12" t="n">
-        <v>2.565524104454789</v>
+        <v>3.59180106208456</v>
       </c>
       <c r="L12" t="n">
-        <v>34.31388489708281</v>
+        <v>48.04033920538097</v>
       </c>
       <c r="M12" t="n">
-        <v>66.06224568971082</v>
+        <v>90.69297681763513</v>
       </c>
       <c r="N12" t="n">
-        <v>97.81060648233884</v>
+        <v>135.1415149609315</v>
       </c>
       <c r="O12" t="n">
-        <v>128.2762052227395</v>
+        <v>179.590053104228</v>
       </c>
       <c r="P12" t="n">
-        <v>128.2762052227395</v>
+        <v>179.590053104228</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.2762052227395</v>
+        <v>179.590053104228</v>
       </c>
       <c r="R12" t="n">
-        <v>128.2762052227395</v>
+        <v>179.590053104228</v>
       </c>
       <c r="S12" t="n">
-        <v>128.2762052227395</v>
+        <v>179.590053104228</v>
       </c>
       <c r="T12" t="n">
-        <v>128.2762052227395</v>
+        <v>179.590053104228</v>
       </c>
       <c r="U12" t="n">
-        <v>128.2762052227395</v>
+        <v>134.2390295930593</v>
       </c>
       <c r="V12" t="n">
-        <v>128.2762052227395</v>
+        <v>134.2390295930593</v>
       </c>
       <c r="W12" t="n">
-        <v>128.2762052227395</v>
+        <v>134.2390295930593</v>
       </c>
       <c r="X12" t="n">
-        <v>128.2762052227395</v>
+        <v>134.2390295930593</v>
       </c>
       <c r="Y12" t="n">
-        <v>128.2762052227395</v>
+        <v>134.2390295930593</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.565524104454789</v>
+        <v>3.59180106208456</v>
       </c>
       <c r="C13" t="n">
-        <v>2.565524104454789</v>
+        <v>3.59180106208456</v>
       </c>
       <c r="D13" t="n">
-        <v>2.565524104454789</v>
+        <v>3.59180106208456</v>
       </c>
       <c r="E13" t="n">
-        <v>2.565524104454789</v>
+        <v>3.59180106208456</v>
       </c>
       <c r="F13" t="n">
-        <v>2.565524104454789</v>
+        <v>3.59180106208456</v>
       </c>
       <c r="G13" t="n">
-        <v>2.565524104454789</v>
+        <v>3.59180106208456</v>
       </c>
       <c r="H13" t="n">
-        <v>2.565524104454789</v>
+        <v>3.59180106208456</v>
       </c>
       <c r="I13" t="n">
-        <v>2.565524104454789</v>
+        <v>3.59180106208456</v>
       </c>
       <c r="J13" t="n">
-        <v>2.565524104454789</v>
+        <v>3.59180106208456</v>
       </c>
       <c r="K13" t="n">
-        <v>2.565524104454789</v>
+        <v>3.59180106208456</v>
       </c>
       <c r="L13" t="n">
-        <v>2.565524104454789</v>
+        <v>3.59180106208456</v>
       </c>
       <c r="M13" t="n">
-        <v>2.565524104454789</v>
+        <v>3.59180106208456</v>
       </c>
       <c r="N13" t="n">
-        <v>2.565524104454789</v>
+        <v>3.59180106208456</v>
       </c>
       <c r="O13" t="n">
-        <v>2.565524104454789</v>
+        <v>3.59180106208456</v>
       </c>
       <c r="P13" t="n">
-        <v>2.565524104454789</v>
+        <v>3.59180106208456</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.565524104454789</v>
+        <v>3.59180106208456</v>
       </c>
       <c r="R13" t="n">
-        <v>2.565524104454789</v>
+        <v>3.59180106208456</v>
       </c>
       <c r="S13" t="n">
-        <v>2.565524104454789</v>
+        <v>3.59180106208456</v>
       </c>
       <c r="T13" t="n">
-        <v>2.565524104454789</v>
+        <v>3.59180106208456</v>
       </c>
       <c r="U13" t="n">
-        <v>2.565524104454789</v>
+        <v>3.59180106208456</v>
       </c>
       <c r="V13" t="n">
-        <v>2.565524104454789</v>
+        <v>3.59180106208456</v>
       </c>
       <c r="W13" t="n">
-        <v>2.565524104454789</v>
+        <v>3.59180106208456</v>
       </c>
       <c r="X13" t="n">
-        <v>2.565524104454789</v>
+        <v>3.59180106208456</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.565524104454789</v>
+        <v>3.59180106208456</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>128.2762052227395</v>
+        <v>94.29384808442174</v>
       </c>
       <c r="C14" t="n">
-        <v>128.2762052227395</v>
+        <v>94.29384808442174</v>
       </c>
       <c r="D14" t="n">
-        <v>128.2762052227395</v>
+        <v>94.29384808442174</v>
       </c>
       <c r="E14" t="n">
-        <v>128.2762052227395</v>
+        <v>94.29384808442174</v>
       </c>
       <c r="F14" t="n">
-        <v>128.2762052227395</v>
+        <v>48.94282457325315</v>
       </c>
       <c r="G14" t="n">
-        <v>99.74446745501498</v>
+        <v>3.591801062084553</v>
       </c>
       <c r="H14" t="n">
-        <v>67.35148633816158</v>
+        <v>3.591801062084553</v>
       </c>
       <c r="I14" t="n">
-        <v>34.95850522130819</v>
+        <v>3.591801062084553</v>
       </c>
       <c r="J14" t="n">
-        <v>2.565524104454789</v>
+        <v>3.591801062084553</v>
       </c>
       <c r="K14" t="n">
-        <v>2.565524104454789</v>
+        <v>3.591801062084553</v>
       </c>
       <c r="L14" t="n">
-        <v>34.31388489708281</v>
+        <v>46.24443867433861</v>
       </c>
       <c r="M14" t="n">
-        <v>66.06224568971082</v>
+        <v>90.69297681763496</v>
       </c>
       <c r="N14" t="n">
-        <v>97.81060648233884</v>
+        <v>135.1415149609313</v>
       </c>
       <c r="O14" t="n">
-        <v>128.2762052227395</v>
+        <v>179.5900531042276</v>
       </c>
       <c r="P14" t="n">
-        <v>128.2762052227395</v>
+        <v>179.5900531042276</v>
       </c>
       <c r="Q14" t="n">
-        <v>128.2762052227395</v>
+        <v>179.5900531042276</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2762052227395</v>
+        <v>139.6448715955903</v>
       </c>
       <c r="S14" t="n">
-        <v>128.2762052227395</v>
+        <v>94.29384808442174</v>
       </c>
       <c r="T14" t="n">
-        <v>128.2762052227395</v>
+        <v>94.29384808442174</v>
       </c>
       <c r="U14" t="n">
-        <v>128.2762052227395</v>
+        <v>94.29384808442174</v>
       </c>
       <c r="V14" t="n">
-        <v>128.2762052227395</v>
+        <v>94.29384808442174</v>
       </c>
       <c r="W14" t="n">
-        <v>128.2762052227395</v>
+        <v>94.29384808442174</v>
       </c>
       <c r="X14" t="n">
-        <v>128.2762052227395</v>
+        <v>94.29384808442174</v>
       </c>
       <c r="Y14" t="n">
-        <v>128.2762052227395</v>
+        <v>94.29384808442174</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34.95850522130819</v>
+        <v>139.6448715955903</v>
       </c>
       <c r="C15" t="n">
-        <v>34.95850522130819</v>
+        <v>94.29384808442174</v>
       </c>
       <c r="D15" t="n">
-        <v>34.95850522130819</v>
+        <v>48.94282457325315</v>
       </c>
       <c r="E15" t="n">
-        <v>34.95850522130819</v>
+        <v>3.591801062084553</v>
       </c>
       <c r="F15" t="n">
-        <v>34.95850522130819</v>
+        <v>3.591801062084553</v>
       </c>
       <c r="G15" t="n">
-        <v>34.95850522130819</v>
+        <v>3.591801062084553</v>
       </c>
       <c r="H15" t="n">
-        <v>34.95850522130819</v>
+        <v>3.591801062084553</v>
       </c>
       <c r="I15" t="n">
-        <v>34.95850522130819</v>
+        <v>3.591801062084553</v>
       </c>
       <c r="J15" t="n">
-        <v>2.565524104454789</v>
+        <v>3.591801062084553</v>
       </c>
       <c r="K15" t="n">
-        <v>2.565524104454789</v>
+        <v>3.591801062084553</v>
       </c>
       <c r="L15" t="n">
-        <v>5.512465054679664</v>
+        <v>42.35147099774304</v>
       </c>
       <c r="M15" t="n">
-        <v>37.26082584730768</v>
+        <v>74.09983179037097</v>
       </c>
       <c r="N15" t="n">
-        <v>69.00918663993569</v>
+        <v>118.5483699336673</v>
       </c>
       <c r="O15" t="n">
-        <v>96.52784443011144</v>
+        <v>135.1415149609313</v>
       </c>
       <c r="P15" t="n">
-        <v>128.2762052227395</v>
+        <v>179.5900531042276</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.2762052227395</v>
+        <v>179.5900531042276</v>
       </c>
       <c r="R15" t="n">
-        <v>128.2762052227395</v>
+        <v>179.5900531042276</v>
       </c>
       <c r="S15" t="n">
-        <v>128.2762052227395</v>
+        <v>179.5900531042276</v>
       </c>
       <c r="T15" t="n">
-        <v>128.2762052227395</v>
+        <v>179.5900531042276</v>
       </c>
       <c r="U15" t="n">
-        <v>128.2762052227395</v>
+        <v>179.5900531042276</v>
       </c>
       <c r="V15" t="n">
-        <v>95.88322410588606</v>
+        <v>139.6448715955903</v>
       </c>
       <c r="W15" t="n">
-        <v>63.49024298903266</v>
+        <v>139.6448715955903</v>
       </c>
       <c r="X15" t="n">
-        <v>34.95850522130819</v>
+        <v>139.6448715955903</v>
       </c>
       <c r="Y15" t="n">
-        <v>34.95850522130819</v>
+        <v>139.6448715955903</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.565524104454789</v>
+        <v>3.591801062084553</v>
       </c>
       <c r="C16" t="n">
-        <v>2.565524104454789</v>
+        <v>3.591801062084553</v>
       </c>
       <c r="D16" t="n">
-        <v>2.565524104454789</v>
+        <v>3.591801062084553</v>
       </c>
       <c r="E16" t="n">
-        <v>2.565524104454789</v>
+        <v>3.591801062084553</v>
       </c>
       <c r="F16" t="n">
-        <v>2.565524104454789</v>
+        <v>3.591801062084553</v>
       </c>
       <c r="G16" t="n">
-        <v>2.565524104454789</v>
+        <v>3.591801062084553</v>
       </c>
       <c r="H16" t="n">
-        <v>2.565524104454789</v>
+        <v>3.591801062084553</v>
       </c>
       <c r="I16" t="n">
-        <v>2.565524104454789</v>
+        <v>3.591801062084553</v>
       </c>
       <c r="J16" t="n">
-        <v>2.565524104454789</v>
+        <v>3.591801062084553</v>
       </c>
       <c r="K16" t="n">
-        <v>2.565524104454789</v>
+        <v>3.591801062084553</v>
       </c>
       <c r="L16" t="n">
-        <v>2.565524104454789</v>
+        <v>3.591801062084553</v>
       </c>
       <c r="M16" t="n">
-        <v>2.565524104454789</v>
+        <v>3.591801062084553</v>
       </c>
       <c r="N16" t="n">
-        <v>2.565524104454789</v>
+        <v>3.591801062084553</v>
       </c>
       <c r="O16" t="n">
-        <v>2.565524104454789</v>
+        <v>3.591801062084553</v>
       </c>
       <c r="P16" t="n">
-        <v>2.565524104454789</v>
+        <v>3.591801062084553</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.565524104454789</v>
+        <v>3.591801062084553</v>
       </c>
       <c r="R16" t="n">
-        <v>2.565524104454789</v>
+        <v>3.591801062084553</v>
       </c>
       <c r="S16" t="n">
-        <v>2.565524104454789</v>
+        <v>3.591801062084553</v>
       </c>
       <c r="T16" t="n">
-        <v>2.565524104454789</v>
+        <v>3.591801062084553</v>
       </c>
       <c r="U16" t="n">
-        <v>2.565524104454789</v>
+        <v>3.591801062084553</v>
       </c>
       <c r="V16" t="n">
-        <v>2.565524104454789</v>
+        <v>3.591801062084553</v>
       </c>
       <c r="W16" t="n">
-        <v>2.565524104454789</v>
+        <v>3.591801062084553</v>
       </c>
       <c r="X16" t="n">
-        <v>2.565524104454789</v>
+        <v>3.591801062084553</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.565524104454789</v>
+        <v>3.591801062084553</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>63.61003533253313</v>
+        <v>274.4245193267107</v>
       </c>
       <c r="C17" t="n">
-        <v>63.61003533253313</v>
+        <v>213.3858535128302</v>
       </c>
       <c r="D17" t="n">
-        <v>63.61003533253313</v>
+        <v>144.0867324707315</v>
       </c>
       <c r="E17" t="n">
-        <v>63.61003533253313</v>
+        <v>74.78761142863287</v>
       </c>
       <c r="F17" t="n">
-        <v>63.61003533253313</v>
+        <v>74.78761142863287</v>
       </c>
       <c r="G17" t="n">
-        <v>63.61003533253313</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="H17" t="n">
-        <v>63.61003533253313</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="I17" t="n">
-        <v>63.61003533253313</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="J17" t="n">
-        <v>5.247827914933985</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="K17" t="n">
-        <v>5.247827914933985</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="L17" t="n">
-        <v>60.69293961891666</v>
+        <v>59.925692046569</v>
       </c>
       <c r="M17" t="n">
-        <v>120.8505804735955</v>
+        <v>127.8457605799299</v>
       </c>
       <c r="N17" t="n">
-        <v>185.7924509209036</v>
+        <v>195.7658291132908</v>
       </c>
       <c r="O17" t="n">
-        <v>250.7343213682117</v>
+        <v>263.6858976466517</v>
       </c>
       <c r="P17" t="n">
-        <v>262.3913957466992</v>
+        <v>274.4245193267107</v>
       </c>
       <c r="Q17" t="n">
-        <v>196.1309422753105</v>
+        <v>274.4245193267107</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8704888039218</v>
+        <v>274.4245193267107</v>
       </c>
       <c r="S17" t="n">
-        <v>63.61003533253313</v>
+        <v>274.4245193267107</v>
       </c>
       <c r="T17" t="n">
-        <v>63.61003533253313</v>
+        <v>274.4245193267107</v>
       </c>
       <c r="U17" t="n">
-        <v>63.61003533253313</v>
+        <v>274.4245193267107</v>
       </c>
       <c r="V17" t="n">
-        <v>63.61003533253313</v>
+        <v>274.4245193267107</v>
       </c>
       <c r="W17" t="n">
-        <v>63.61003533253313</v>
+        <v>274.4245193267107</v>
       </c>
       <c r="X17" t="n">
-        <v>63.61003533253313</v>
+        <v>274.4245193267107</v>
       </c>
       <c r="Y17" t="n">
-        <v>63.61003533253313</v>
+        <v>274.4245193267107</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.247827914933985</v>
+        <v>144.0867324707315</v>
       </c>
       <c r="C18" t="n">
-        <v>5.247827914933985</v>
+        <v>74.78761142863287</v>
       </c>
       <c r="D18" t="n">
-        <v>5.247827914933985</v>
+        <v>74.78761142863287</v>
       </c>
       <c r="E18" t="n">
-        <v>5.247827914933985</v>
+        <v>74.78761142863287</v>
       </c>
       <c r="F18" t="n">
-        <v>5.247827914933985</v>
+        <v>74.78761142863287</v>
       </c>
       <c r="G18" t="n">
-        <v>5.247827914933985</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="H18" t="n">
-        <v>5.247827914933985</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="I18" t="n">
-        <v>5.247827914933985</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="J18" t="n">
-        <v>5.247827914933985</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="K18" t="n">
-        <v>5.247827914933985</v>
+        <v>31.82203480960098</v>
       </c>
       <c r="L18" t="n">
-        <v>70.18969836224204</v>
+        <v>99.74210334296188</v>
       </c>
       <c r="M18" t="n">
-        <v>132.5076548520831</v>
+        <v>167.6621718763228</v>
       </c>
       <c r="N18" t="n">
-        <v>197.4495252993912</v>
+        <v>231.7152532088837</v>
       </c>
       <c r="O18" t="n">
-        <v>262.3913957466992</v>
+        <v>274.4245193267107</v>
       </c>
       <c r="P18" t="n">
-        <v>262.3913957466992</v>
+        <v>274.4245193267107</v>
       </c>
       <c r="Q18" t="n">
-        <v>262.3913957466992</v>
+        <v>274.4245193267107</v>
       </c>
       <c r="R18" t="n">
-        <v>196.1309422753105</v>
+        <v>213.3858535128302</v>
       </c>
       <c r="S18" t="n">
-        <v>129.8704888039218</v>
+        <v>213.3858535128302</v>
       </c>
       <c r="T18" t="n">
-        <v>63.61003533253313</v>
+        <v>213.3858535128302</v>
       </c>
       <c r="U18" t="n">
-        <v>5.247827914933985</v>
+        <v>213.3858535128302</v>
       </c>
       <c r="V18" t="n">
-        <v>5.247827914933985</v>
+        <v>213.3858535128302</v>
       </c>
       <c r="W18" t="n">
-        <v>5.247827914933985</v>
+        <v>213.3858535128302</v>
       </c>
       <c r="X18" t="n">
-        <v>5.247827914933985</v>
+        <v>213.3858535128302</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.247827914933985</v>
+        <v>213.3858535128302</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.247827914933985</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="C19" t="n">
-        <v>5.247827914933985</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="D19" t="n">
-        <v>5.247827914933985</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="E19" t="n">
-        <v>5.247827914933985</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="F19" t="n">
-        <v>5.247827914933985</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="G19" t="n">
-        <v>5.247827914933985</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="H19" t="n">
-        <v>5.247827914933985</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="I19" t="n">
-        <v>5.247827914933985</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="J19" t="n">
-        <v>5.247827914933985</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="K19" t="n">
-        <v>5.247827914933985</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="L19" t="n">
-        <v>5.247827914933985</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="M19" t="n">
-        <v>5.247827914933985</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="N19" t="n">
-        <v>5.247827914933985</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="O19" t="n">
-        <v>5.247827914933985</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="P19" t="n">
-        <v>5.247827914933985</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.247827914933985</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="R19" t="n">
-        <v>5.247827914933985</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="S19" t="n">
-        <v>5.247827914933985</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="T19" t="n">
-        <v>5.247827914933985</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="U19" t="n">
-        <v>5.247827914933985</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="V19" t="n">
-        <v>5.247827914933985</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="W19" t="n">
-        <v>5.247827914933985</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="X19" t="n">
-        <v>5.247827914933985</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.247827914933985</v>
+        <v>5.488490386534214</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>148.3454176530275</v>
+        <v>205.1253982846121</v>
       </c>
       <c r="C20" t="n">
-        <v>148.3454176530275</v>
+        <v>205.1253982846121</v>
       </c>
       <c r="D20" t="n">
-        <v>76.99806402998617</v>
+        <v>144.0867324707315</v>
       </c>
       <c r="E20" t="n">
-        <v>5.65071040694487</v>
+        <v>74.78761142863287</v>
       </c>
       <c r="F20" t="n">
-        <v>5.65071040694487</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="G20" t="n">
-        <v>5.65071040694487</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="H20" t="n">
-        <v>5.65071040694487</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="I20" t="n">
-        <v>5.65071040694487</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="J20" t="n">
-        <v>5.65071040694487</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="K20" t="n">
-        <v>5.65071040694487</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="L20" t="n">
-        <v>61.09582211092759</v>
+        <v>59.925692046569</v>
       </c>
       <c r="M20" t="n">
-        <v>131.0233633968704</v>
+        <v>127.8457605799299</v>
       </c>
       <c r="N20" t="n">
-        <v>200.9509046828131</v>
+        <v>195.7658291132908</v>
       </c>
       <c r="O20" t="n">
-        <v>270.8784459687559</v>
+        <v>263.6858976466517</v>
       </c>
       <c r="P20" t="n">
-        <v>282.5355203472435</v>
+        <v>274.4245193267107</v>
       </c>
       <c r="Q20" t="n">
-        <v>211.8780283227829</v>
+        <v>274.4245193267107</v>
       </c>
       <c r="R20" t="n">
-        <v>211.8780283227829</v>
+        <v>274.4245193267107</v>
       </c>
       <c r="S20" t="n">
-        <v>148.3454176530275</v>
+        <v>274.4245193267107</v>
       </c>
       <c r="T20" t="n">
-        <v>148.3454176530275</v>
+        <v>274.4245193267107</v>
       </c>
       <c r="U20" t="n">
-        <v>148.3454176530275</v>
+        <v>274.4245193267107</v>
       </c>
       <c r="V20" t="n">
-        <v>148.3454176530275</v>
+        <v>274.4245193267107</v>
       </c>
       <c r="W20" t="n">
-        <v>148.3454176530275</v>
+        <v>274.4245193267107</v>
       </c>
       <c r="X20" t="n">
-        <v>148.3454176530275</v>
+        <v>274.4245193267107</v>
       </c>
       <c r="Y20" t="n">
-        <v>148.3454176530275</v>
+        <v>274.4245193267107</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>148.3454176530275</v>
+        <v>144.0867324707315</v>
       </c>
       <c r="C21" t="n">
-        <v>148.3454176530275</v>
+        <v>74.78761142863287</v>
       </c>
       <c r="D21" t="n">
-        <v>76.99806402998617</v>
+        <v>74.78761142863287</v>
       </c>
       <c r="E21" t="n">
-        <v>76.99806402998617</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="F21" t="n">
-        <v>5.65071040694487</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="G21" t="n">
-        <v>5.65071040694487</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="H21" t="n">
-        <v>5.65071040694487</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="I21" t="n">
-        <v>5.65071040694487</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="J21" t="n">
-        <v>5.65071040694487</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="K21" t="n">
-        <v>5.65071040694487</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="L21" t="n">
-        <v>75.57825169288763</v>
+        <v>17.11088451710944</v>
       </c>
       <c r="M21" t="n">
-        <v>118.3163292101518</v>
+        <v>74.53130092742795</v>
       </c>
       <c r="N21" t="n">
-        <v>185.6953055043268</v>
+        <v>138.5843822599889</v>
       </c>
       <c r="O21" t="n">
-        <v>212.6079790613007</v>
+        <v>206.5044507933498</v>
       </c>
       <c r="P21" t="n">
-        <v>282.5355203472435</v>
+        <v>274.4245193267107</v>
       </c>
       <c r="Q21" t="n">
-        <v>282.5355203472435</v>
+        <v>250.1095645186514</v>
       </c>
       <c r="R21" t="n">
-        <v>282.5355203472435</v>
+        <v>250.1095645186514</v>
       </c>
       <c r="S21" t="n">
-        <v>282.5355203472435</v>
+        <v>250.1095645186514</v>
       </c>
       <c r="T21" t="n">
-        <v>282.5355203472435</v>
+        <v>250.1095645186514</v>
       </c>
       <c r="U21" t="n">
-        <v>282.5355203472435</v>
+        <v>250.1095645186514</v>
       </c>
       <c r="V21" t="n">
-        <v>282.5355203472435</v>
+        <v>250.1095645186514</v>
       </c>
       <c r="W21" t="n">
-        <v>282.5355203472435</v>
+        <v>213.3858535128302</v>
       </c>
       <c r="X21" t="n">
-        <v>219.6927712760688</v>
+        <v>144.0867324707315</v>
       </c>
       <c r="Y21" t="n">
-        <v>148.3454176530275</v>
+        <v>144.0867324707315</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.65071040694487</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="C22" t="n">
-        <v>5.65071040694487</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="D22" t="n">
-        <v>5.65071040694487</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="E22" t="n">
-        <v>5.65071040694487</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="F22" t="n">
-        <v>5.65071040694487</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="G22" t="n">
-        <v>5.65071040694487</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="H22" t="n">
-        <v>5.65071040694487</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="I22" t="n">
-        <v>5.65071040694487</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="J22" t="n">
-        <v>5.65071040694487</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="K22" t="n">
-        <v>5.65071040694487</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="L22" t="n">
-        <v>5.65071040694487</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="M22" t="n">
-        <v>5.65071040694487</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="N22" t="n">
-        <v>5.65071040694487</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="O22" t="n">
-        <v>5.65071040694487</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="P22" t="n">
-        <v>5.65071040694487</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.65071040694487</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="R22" t="n">
-        <v>5.65071040694487</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="S22" t="n">
-        <v>5.65071040694487</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="T22" t="n">
-        <v>5.65071040694487</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="U22" t="n">
-        <v>5.65071040694487</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="V22" t="n">
-        <v>5.65071040694487</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="W22" t="n">
-        <v>5.65071040694487</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="X22" t="n">
-        <v>5.65071040694487</v>
+        <v>5.488490386534214</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.65071040694487</v>
+        <v>5.488490386534214</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>312.4756642517364</v>
+        <v>85.15750930820035</v>
       </c>
       <c r="C23" t="n">
-        <v>312.4756642517364</v>
+        <v>85.15750930820035</v>
       </c>
       <c r="D23" t="n">
-        <v>233.5676682285706</v>
+        <v>85.15750930820035</v>
       </c>
       <c r="E23" t="n">
-        <v>154.6596722054048</v>
+        <v>85.15750930820035</v>
       </c>
       <c r="F23" t="n">
-        <v>75.75167618223908</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="G23" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="H23" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="I23" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="J23" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="K23" t="n">
-        <v>6.92947346701618</v>
+        <v>6.929473467016148</v>
       </c>
       <c r="L23" t="n">
-        <v>65.73931599410645</v>
+        <v>65.73931599410631</v>
       </c>
       <c r="M23" t="n">
-        <v>143.0770428964112</v>
+        <v>143.0770428964109</v>
       </c>
       <c r="N23" t="n">
-        <v>220.414769798716</v>
+        <v>220.4147697987156</v>
       </c>
       <c r="O23" t="n">
-        <v>297.7524967010207</v>
+        <v>297.7524967010202</v>
       </c>
       <c r="P23" t="n">
-        <v>312.4756642517364</v>
+        <v>312.4756642517359</v>
       </c>
       <c r="Q23" t="n">
-        <v>312.4756642517364</v>
+        <v>312.4756642517359</v>
       </c>
       <c r="R23" t="n">
-        <v>312.4756642517364</v>
+        <v>233.5676682285702</v>
       </c>
       <c r="S23" t="n">
-        <v>312.4756642517364</v>
+        <v>233.5676682285702</v>
       </c>
       <c r="T23" t="n">
-        <v>312.4756642517364</v>
+        <v>233.5676682285702</v>
       </c>
       <c r="U23" t="n">
-        <v>312.4756642517364</v>
+        <v>154.6596722054046</v>
       </c>
       <c r="V23" t="n">
-        <v>312.4756642517364</v>
+        <v>85.15750930820035</v>
       </c>
       <c r="W23" t="n">
-        <v>312.4756642517364</v>
+        <v>85.15750930820035</v>
       </c>
       <c r="X23" t="n">
-        <v>312.4756642517364</v>
+        <v>85.15750930820035</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.4756642517364</v>
+        <v>85.15750930820035</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>154.6596722054048</v>
+        <v>164.065505331366</v>
       </c>
       <c r="C24" t="n">
-        <v>154.6596722054048</v>
+        <v>164.065505331366</v>
       </c>
       <c r="D24" t="n">
-        <v>154.6596722054048</v>
+        <v>85.15750930820035</v>
       </c>
       <c r="E24" t="n">
-        <v>154.6596722054048</v>
+        <v>85.15750930820035</v>
       </c>
       <c r="F24" t="n">
-        <v>75.75167618223908</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="G24" t="n">
-        <v>75.75167618223908</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="H24" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="I24" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="J24" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="K24" t="n">
-        <v>6.249513285034728</v>
+        <v>34.97704472787882</v>
       </c>
       <c r="L24" t="n">
-        <v>83.58724018733948</v>
+        <v>50.83552380091707</v>
       </c>
       <c r="M24" t="n">
-        <v>160.9249670896442</v>
+        <v>128.1732507032217</v>
       </c>
       <c r="N24" t="n">
-        <v>235.1379373494316</v>
+        <v>205.5109776055263</v>
       </c>
       <c r="O24" t="n">
-        <v>312.4756642517364</v>
+        <v>235.1379373494312</v>
       </c>
       <c r="P24" t="n">
-        <v>312.4756642517364</v>
+        <v>312.4756642517359</v>
       </c>
       <c r="Q24" t="n">
-        <v>312.4756642517364</v>
+        <v>290.0915912317624</v>
       </c>
       <c r="R24" t="n">
-        <v>233.5676682285706</v>
+        <v>211.1835952085968</v>
       </c>
       <c r="S24" t="n">
-        <v>233.5676682285706</v>
+        <v>211.1835952085968</v>
       </c>
       <c r="T24" t="n">
-        <v>233.5676682285706</v>
+        <v>211.1835952085968</v>
       </c>
       <c r="U24" t="n">
-        <v>233.5676682285706</v>
+        <v>164.065505331366</v>
       </c>
       <c r="V24" t="n">
-        <v>233.5676682285706</v>
+        <v>164.065505331366</v>
       </c>
       <c r="W24" t="n">
-        <v>233.5676682285706</v>
+        <v>164.065505331366</v>
       </c>
       <c r="X24" t="n">
-        <v>233.5676682285706</v>
+        <v>164.065505331366</v>
       </c>
       <c r="Y24" t="n">
-        <v>233.5676682285706</v>
+        <v>164.065505331366</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="C25" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="D25" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="E25" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="F25" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="G25" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="H25" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="I25" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="J25" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="K25" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="L25" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="M25" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="N25" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="O25" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="P25" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="R25" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="S25" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="T25" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="U25" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="V25" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="W25" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="X25" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>164.0655053313661</v>
+        <v>154.6596722054046</v>
       </c>
       <c r="C26" t="n">
-        <v>164.0655053313661</v>
+        <v>154.6596722054046</v>
       </c>
       <c r="D26" t="n">
-        <v>164.0655053313661</v>
+        <v>154.6596722054046</v>
       </c>
       <c r="E26" t="n">
-        <v>164.0655053313661</v>
+        <v>85.15750930820035</v>
       </c>
       <c r="F26" t="n">
-        <v>85.15750930820039</v>
+        <v>85.15750930820035</v>
       </c>
       <c r="G26" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="H26" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="I26" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="J26" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="K26" t="n">
-        <v>6.929473467016123</v>
+        <v>6.929473467016148</v>
       </c>
       <c r="L26" t="n">
-        <v>65.73931599410628</v>
+        <v>65.73931599410631</v>
       </c>
       <c r="M26" t="n">
         <v>143.0770428964109</v>
@@ -6241,37 +6241,37 @@
         <v>220.4147697987156</v>
       </c>
       <c r="O26" t="n">
-        <v>297.7524967010203</v>
+        <v>297.7524967010202</v>
       </c>
       <c r="P26" t="n">
-        <v>312.475664251736</v>
+        <v>312.4756642517359</v>
       </c>
       <c r="Q26" t="n">
-        <v>312.475664251736</v>
+        <v>312.4756642517359</v>
       </c>
       <c r="R26" t="n">
-        <v>312.475664251736</v>
+        <v>312.4756642517359</v>
       </c>
       <c r="S26" t="n">
-        <v>312.475664251736</v>
+        <v>312.4756642517359</v>
       </c>
       <c r="T26" t="n">
-        <v>312.475664251736</v>
+        <v>312.4756642517359</v>
       </c>
       <c r="U26" t="n">
-        <v>312.475664251736</v>
+        <v>233.5676682285702</v>
       </c>
       <c r="V26" t="n">
-        <v>312.475664251736</v>
+        <v>154.6596722054046</v>
       </c>
       <c r="W26" t="n">
-        <v>312.475664251736</v>
+        <v>154.6596722054046</v>
       </c>
       <c r="X26" t="n">
-        <v>233.5676682285704</v>
+        <v>154.6596722054046</v>
       </c>
       <c r="Y26" t="n">
-        <v>233.5676682285704</v>
+        <v>154.6596722054046</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6.249513285034721</v>
+        <v>132.2755991854312</v>
       </c>
       <c r="C27" t="n">
-        <v>6.249513285034721</v>
+        <v>85.15750930820035</v>
       </c>
       <c r="D27" t="n">
-        <v>6.249513285034721</v>
+        <v>85.15750930820035</v>
       </c>
       <c r="E27" t="n">
-        <v>6.249513285034721</v>
+        <v>85.15750930820035</v>
       </c>
       <c r="F27" t="n">
-        <v>6.249513285034721</v>
+        <v>85.15750930820035</v>
       </c>
       <c r="G27" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="H27" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="I27" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="J27" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="K27" t="n">
-        <v>6.249513285034721</v>
+        <v>34.97704472787882</v>
       </c>
       <c r="L27" t="n">
-        <v>83.58724018733939</v>
+        <v>91.97340120771673</v>
       </c>
       <c r="M27" t="n">
-        <v>129.2158796346459</v>
+        <v>137.6020406550232</v>
       </c>
       <c r="N27" t="n">
-        <v>197.1248165851489</v>
+        <v>205.5109776055263</v>
       </c>
       <c r="O27" t="n">
-        <v>274.4625434874536</v>
+        <v>235.1379373494312</v>
       </c>
       <c r="P27" t="n">
-        <v>312.475664251736</v>
+        <v>312.4756642517359</v>
       </c>
       <c r="Q27" t="n">
-        <v>312.475664251736</v>
+        <v>290.0915912317624</v>
       </c>
       <c r="R27" t="n">
-        <v>312.475664251736</v>
+        <v>211.1835952085968</v>
       </c>
       <c r="S27" t="n">
-        <v>312.475664251736</v>
+        <v>132.2755991854312</v>
       </c>
       <c r="T27" t="n">
-        <v>233.5676682285704</v>
+        <v>132.2755991854312</v>
       </c>
       <c r="U27" t="n">
-        <v>154.6596722054047</v>
+        <v>132.2755991854312</v>
       </c>
       <c r="V27" t="n">
-        <v>75.75167618223905</v>
+        <v>132.2755991854312</v>
       </c>
       <c r="W27" t="n">
-        <v>75.75167618223905</v>
+        <v>132.2755991854312</v>
       </c>
       <c r="X27" t="n">
-        <v>75.75167618223905</v>
+        <v>132.2755991854312</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.249513285034721</v>
+        <v>132.2755991854312</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="C28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="D28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="E28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="F28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="G28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="H28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="I28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="J28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="K28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="L28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="M28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="N28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="O28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="P28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="R28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="S28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="T28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="U28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="V28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="W28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="X28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="Y28" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034717</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6.249513285034728</v>
+        <v>154.6596722054046</v>
       </c>
       <c r="C29" t="n">
-        <v>6.249513285034728</v>
+        <v>85.15750930820035</v>
       </c>
       <c r="D29" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="E29" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="F29" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="G29" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="H29" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="I29" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="J29" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="K29" t="n">
-        <v>6.929473467016159</v>
+        <v>6.929473467016123</v>
       </c>
       <c r="L29" t="n">
-        <v>65.73931599410631</v>
+        <v>65.73931599410628</v>
       </c>
       <c r="M29" t="n">
-        <v>143.0770428964111</v>
+        <v>143.0770428964109</v>
       </c>
       <c r="N29" t="n">
-        <v>220.4147697987158</v>
+        <v>220.4147697987155</v>
       </c>
       <c r="O29" t="n">
-        <v>297.7524967010206</v>
+        <v>297.7524967010202</v>
       </c>
       <c r="P29" t="n">
-        <v>312.4756642517362</v>
+        <v>312.4756642517359</v>
       </c>
       <c r="Q29" t="n">
-        <v>244.1674307537117</v>
+        <v>312.4756642517359</v>
       </c>
       <c r="R29" t="n">
-        <v>165.2594347305459</v>
+        <v>312.4756642517359</v>
       </c>
       <c r="S29" t="n">
-        <v>86.35143870738018</v>
+        <v>312.4756642517359</v>
       </c>
       <c r="T29" t="n">
-        <v>85.15750930820047</v>
+        <v>312.4756642517359</v>
       </c>
       <c r="U29" t="n">
-        <v>85.15750930820047</v>
+        <v>233.5676682285702</v>
       </c>
       <c r="V29" t="n">
-        <v>85.15750930820047</v>
+        <v>154.6596722054046</v>
       </c>
       <c r="W29" t="n">
-        <v>6.249513285034728</v>
+        <v>154.6596722054046</v>
       </c>
       <c r="X29" t="n">
-        <v>6.249513285034728</v>
+        <v>154.6596722054046</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.249513285034728</v>
+        <v>154.6596722054046</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>233.5676682285706</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="C30" t="n">
-        <v>154.6596722054048</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="D30" t="n">
-        <v>154.6596722054048</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="E30" t="n">
-        <v>154.6596722054048</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="F30" t="n">
-        <v>154.6596722054048</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="G30" t="n">
-        <v>85.15750930820047</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="H30" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="I30" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="J30" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="K30" t="n">
-        <v>6.249513285034728</v>
+        <v>34.97704472787882</v>
       </c>
       <c r="L30" t="n">
-        <v>21.09091840004858</v>
+        <v>49.81844984289267</v>
       </c>
       <c r="M30" t="n">
-        <v>89.89127349662375</v>
+        <v>95.44708929019913</v>
       </c>
       <c r="N30" t="n">
-        <v>157.8002104471269</v>
+        <v>163.3560262407022</v>
       </c>
       <c r="O30" t="n">
-        <v>235.1379373494316</v>
+        <v>235.1379373494312</v>
       </c>
       <c r="P30" t="n">
-        <v>312.4756642517364</v>
+        <v>312.4756642517359</v>
       </c>
       <c r="Q30" t="n">
-        <v>312.4756642517364</v>
+        <v>312.4756642517359</v>
       </c>
       <c r="R30" t="n">
-        <v>312.4756642517364</v>
+        <v>233.5676682285702</v>
       </c>
       <c r="S30" t="n">
-        <v>233.5676682285706</v>
+        <v>154.6596722054046</v>
       </c>
       <c r="T30" t="n">
-        <v>233.5676682285706</v>
+        <v>154.6596722054046</v>
       </c>
       <c r="U30" t="n">
-        <v>233.5676682285706</v>
+        <v>85.15750930820035</v>
       </c>
       <c r="V30" t="n">
-        <v>233.5676682285706</v>
+        <v>85.15750930820035</v>
       </c>
       <c r="W30" t="n">
-        <v>233.5676682285706</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="X30" t="n">
-        <v>233.5676682285706</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="Y30" t="n">
-        <v>233.5676682285706</v>
+        <v>6.249513285034717</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="C31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="D31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="E31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="F31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="G31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="H31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="I31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="J31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="K31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="L31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="M31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="N31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="O31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="P31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="R31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="S31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="T31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="U31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="V31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="W31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="X31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="Y31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>85.15750930820047</v>
+        <v>86.35143870738011</v>
       </c>
       <c r="C32" t="n">
-        <v>85.15750930820047</v>
+        <v>86.35143870738011</v>
       </c>
       <c r="D32" t="n">
-        <v>85.15750930820047</v>
+        <v>86.35143870738011</v>
       </c>
       <c r="E32" t="n">
-        <v>6.249513285034728</v>
+        <v>86.35143870738011</v>
       </c>
       <c r="F32" t="n">
-        <v>6.249513285034728</v>
+        <v>7.443442684214489</v>
       </c>
       <c r="G32" t="n">
-        <v>6.249513285034728</v>
+        <v>7.443442684214489</v>
       </c>
       <c r="H32" t="n">
-        <v>6.249513285034728</v>
+        <v>7.443442684214489</v>
       </c>
       <c r="I32" t="n">
-        <v>6.249513285034728</v>
+        <v>7.443442684214489</v>
       </c>
       <c r="J32" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="K32" t="n">
-        <v>6.929473467016251</v>
+        <v>6.929473467016148</v>
       </c>
       <c r="L32" t="n">
-        <v>65.73931599410641</v>
+        <v>65.73931599410631</v>
       </c>
       <c r="M32" t="n">
-        <v>143.0770428964111</v>
+        <v>143.0770428964109</v>
       </c>
       <c r="N32" t="n">
-        <v>220.4147697987159</v>
+        <v>220.4147697987156</v>
       </c>
       <c r="O32" t="n">
-        <v>297.7524967010207</v>
+        <v>297.7524967010202</v>
       </c>
       <c r="P32" t="n">
-        <v>312.4756642517364</v>
+        <v>312.4756642517359</v>
       </c>
       <c r="Q32" t="n">
-        <v>312.4756642517364</v>
+        <v>244.1674307537114</v>
       </c>
       <c r="R32" t="n">
-        <v>312.4756642517364</v>
+        <v>244.1674307537114</v>
       </c>
       <c r="S32" t="n">
-        <v>312.4756642517364</v>
+        <v>244.1674307537114</v>
       </c>
       <c r="T32" t="n">
-        <v>312.4756642517364</v>
+        <v>244.1674307537114</v>
       </c>
       <c r="U32" t="n">
-        <v>312.4756642517364</v>
+        <v>165.2594347305457</v>
       </c>
       <c r="V32" t="n">
-        <v>312.4756642517364</v>
+        <v>165.2594347305457</v>
       </c>
       <c r="W32" t="n">
-        <v>233.5676682285706</v>
+        <v>165.2594347305457</v>
       </c>
       <c r="X32" t="n">
-        <v>154.6596722054048</v>
+        <v>165.2594347305457</v>
       </c>
       <c r="Y32" t="n">
-        <v>154.6596722054048</v>
+        <v>86.35143870738011</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="C33" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="D33" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="E33" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="F33" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="G33" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="H33" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="I33" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="J33" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="K33" t="n">
-        <v>34.97704472787883</v>
+        <v>34.97704472787882</v>
       </c>
       <c r="L33" t="n">
-        <v>91.97340120771713</v>
+        <v>112.3147716301834</v>
       </c>
       <c r="M33" t="n">
-        <v>137.6020406550236</v>
+        <v>189.6524985324881</v>
       </c>
       <c r="N33" t="n">
-        <v>205.5109776055267</v>
+        <v>257.5614354829912</v>
       </c>
       <c r="O33" t="n">
-        <v>235.1379373494316</v>
+        <v>312.4756642517359</v>
       </c>
       <c r="P33" t="n">
-        <v>312.4756642517364</v>
+        <v>312.4756642517359</v>
       </c>
       <c r="Q33" t="n">
-        <v>290.0915912317629</v>
+        <v>312.4756642517359</v>
       </c>
       <c r="R33" t="n">
-        <v>290.0915912317629</v>
+        <v>233.5676682285702</v>
       </c>
       <c r="S33" t="n">
-        <v>242.973501354532</v>
+        <v>154.6596722054046</v>
       </c>
       <c r="T33" t="n">
-        <v>164.0655053313662</v>
+        <v>75.75167618223898</v>
       </c>
       <c r="U33" t="n">
-        <v>85.15750930820047</v>
+        <v>75.75167618223898</v>
       </c>
       <c r="V33" t="n">
-        <v>85.15750930820047</v>
+        <v>75.75167618223898</v>
       </c>
       <c r="W33" t="n">
-        <v>85.15750930820047</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="X33" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="Y33" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="C34" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="D34" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="E34" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="F34" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="G34" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="H34" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="I34" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="J34" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="K34" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="L34" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="M34" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="N34" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="O34" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="P34" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="R34" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="S34" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="T34" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="U34" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="V34" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="W34" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="X34" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
       <c r="Y34" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034717</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>164.0655053313661</v>
+        <v>7.443442684214489</v>
       </c>
       <c r="C35" t="n">
-        <v>85.15750930820039</v>
+        <v>7.443442684214489</v>
       </c>
       <c r="D35" t="n">
-        <v>6.249513285034721</v>
+        <v>7.443442684214489</v>
       </c>
       <c r="E35" t="n">
-        <v>6.249513285034721</v>
+        <v>7.443442684214489</v>
       </c>
       <c r="F35" t="n">
-        <v>6.249513285034721</v>
+        <v>7.443442684214489</v>
       </c>
       <c r="G35" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="H35" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="I35" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="J35" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="K35" t="n">
-        <v>6.929473467016135</v>
+        <v>6.929473467016251</v>
       </c>
       <c r="L35" t="n">
-        <v>65.73931599410629</v>
+        <v>65.73931599410641</v>
       </c>
       <c r="M35" t="n">
-        <v>143.0770428964109</v>
+        <v>143.077042896411</v>
       </c>
       <c r="N35" t="n">
-        <v>220.4147697987156</v>
+        <v>220.4147697987157</v>
       </c>
       <c r="O35" t="n">
-        <v>297.7524967010203</v>
+        <v>297.7524967010204</v>
       </c>
       <c r="P35" t="n">
-        <v>312.475664251736</v>
+        <v>312.4756642517361</v>
       </c>
       <c r="Q35" t="n">
-        <v>312.475664251736</v>
+        <v>244.1674307537116</v>
       </c>
       <c r="R35" t="n">
-        <v>312.475664251736</v>
+        <v>244.1674307537116</v>
       </c>
       <c r="S35" t="n">
-        <v>312.475664251736</v>
+        <v>244.1674307537116</v>
       </c>
       <c r="T35" t="n">
-        <v>312.475664251736</v>
+        <v>244.1674307537116</v>
       </c>
       <c r="U35" t="n">
-        <v>312.475664251736</v>
+        <v>244.1674307537116</v>
       </c>
       <c r="V35" t="n">
-        <v>312.475664251736</v>
+        <v>244.1674307537116</v>
       </c>
       <c r="W35" t="n">
-        <v>312.475664251736</v>
+        <v>165.2594347305459</v>
       </c>
       <c r="X35" t="n">
-        <v>312.475664251736</v>
+        <v>86.35143870738018</v>
       </c>
       <c r="Y35" t="n">
-        <v>242.9735013545317</v>
+        <v>7.443442684214489</v>
       </c>
     </row>
     <row r="36">
@@ -6995,37 +6995,37 @@
         <v>164.0655053313661</v>
       </c>
       <c r="C36" t="n">
-        <v>85.15750930820039</v>
+        <v>164.0655053313661</v>
       </c>
       <c r="D36" t="n">
-        <v>6.249513285034721</v>
+        <v>85.15750930820042</v>
       </c>
       <c r="E36" t="n">
-        <v>6.249513285034721</v>
+        <v>85.15750930820042</v>
       </c>
       <c r="F36" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="G36" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="H36" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="I36" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="J36" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="K36" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="L36" t="n">
         <v>21.09091840004857</v>
       </c>
       <c r="M36" t="n">
-        <v>89.89127349662358</v>
+        <v>89.89127349662364</v>
       </c>
       <c r="N36" t="n">
         <v>157.8002104471267</v>
@@ -7034,34 +7034,34 @@
         <v>235.1379373494314</v>
       </c>
       <c r="P36" t="n">
-        <v>312.475664251736</v>
+        <v>312.4756642517361</v>
       </c>
       <c r="Q36" t="n">
-        <v>312.475664251736</v>
+        <v>312.4756642517361</v>
       </c>
       <c r="R36" t="n">
-        <v>312.475664251736</v>
+        <v>312.4756642517361</v>
       </c>
       <c r="S36" t="n">
-        <v>312.475664251736</v>
+        <v>312.4756642517361</v>
       </c>
       <c r="T36" t="n">
-        <v>312.475664251736</v>
+        <v>312.4756642517361</v>
       </c>
       <c r="U36" t="n">
-        <v>312.475664251736</v>
+        <v>242.9735013545318</v>
       </c>
       <c r="V36" t="n">
-        <v>312.475664251736</v>
+        <v>242.9735013545318</v>
       </c>
       <c r="W36" t="n">
-        <v>312.475664251736</v>
+        <v>164.0655053313661</v>
       </c>
       <c r="X36" t="n">
-        <v>312.475664251736</v>
+        <v>164.0655053313661</v>
       </c>
       <c r="Y36" t="n">
-        <v>242.9735013545317</v>
+        <v>164.0655053313661</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="C37" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="D37" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="E37" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="F37" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="G37" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="H37" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="I37" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="J37" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="K37" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="L37" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="M37" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="N37" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="O37" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="P37" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="Q37" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="R37" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="S37" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="T37" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="U37" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="V37" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="W37" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="X37" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="Y37" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>75.75167618223904</v>
+        <v>233.5676682285704</v>
       </c>
       <c r="C38" t="n">
-        <v>75.75167618223904</v>
+        <v>154.6596722054047</v>
       </c>
       <c r="D38" t="n">
-        <v>75.75167618223904</v>
+        <v>75.75167618223902</v>
       </c>
       <c r="E38" t="n">
-        <v>6.249513285034721</v>
+        <v>75.75167618223902</v>
       </c>
       <c r="F38" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="G38" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="H38" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="I38" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="J38" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="K38" t="n">
-        <v>6.929473467016251</v>
+        <v>6.929473467016152</v>
       </c>
       <c r="L38" t="n">
-        <v>65.73931599410641</v>
+        <v>65.73931599410631</v>
       </c>
       <c r="M38" t="n">
         <v>143.077042896411</v>
@@ -7198,28 +7198,28 @@
         <v>312.4756642517361</v>
       </c>
       <c r="R38" t="n">
-        <v>233.5676682285704</v>
+        <v>312.4756642517361</v>
       </c>
       <c r="S38" t="n">
-        <v>233.5676682285704</v>
+        <v>312.4756642517361</v>
       </c>
       <c r="T38" t="n">
-        <v>233.5676682285704</v>
+        <v>312.4756642517361</v>
       </c>
       <c r="U38" t="n">
-        <v>233.5676682285704</v>
+        <v>312.4756642517361</v>
       </c>
       <c r="V38" t="n">
-        <v>154.6596722054047</v>
+        <v>312.4756642517361</v>
       </c>
       <c r="W38" t="n">
-        <v>75.75167618223904</v>
+        <v>312.4756642517361</v>
       </c>
       <c r="X38" t="n">
-        <v>75.75167618223904</v>
+        <v>312.4756642517361</v>
       </c>
       <c r="Y38" t="n">
-        <v>75.75167618223904</v>
+        <v>312.4756642517361</v>
       </c>
     </row>
     <row r="39">
@@ -7229,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>233.5676682285704</v>
+        <v>85.15750930820042</v>
       </c>
       <c r="C39" t="n">
-        <v>154.6596722054047</v>
+        <v>85.15750930820042</v>
       </c>
       <c r="D39" t="n">
-        <v>75.75167618223904</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="E39" t="n">
-        <v>75.75167618223904</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="F39" t="n">
-        <v>64.85634840341262</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="G39" t="n">
-        <v>64.85634840341262</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="H39" t="n">
-        <v>64.85634840341262</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="I39" t="n">
-        <v>64.85634840341262</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="J39" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="K39" t="n">
         <v>34.97704472787882</v>
       </c>
       <c r="L39" t="n">
-        <v>112.3147716301835</v>
+        <v>49.81844984289267</v>
       </c>
       <c r="M39" t="n">
-        <v>167.2290003989283</v>
+        <v>95.44708929019913</v>
       </c>
       <c r="N39" t="n">
+        <v>163.3560262407022</v>
+      </c>
+      <c r="O39" t="n">
         <v>235.1379373494314</v>
-      </c>
-      <c r="O39" t="n">
-        <v>312.4756642517361</v>
       </c>
       <c r="P39" t="n">
         <v>312.4756642517361</v>
@@ -7283,7 +7283,7 @@
         <v>312.4756642517361</v>
       </c>
       <c r="T39" t="n">
-        <v>233.5676682285704</v>
+        <v>312.4756642517361</v>
       </c>
       <c r="U39" t="n">
         <v>233.5676682285704</v>
@@ -7298,7 +7298,7 @@
         <v>233.5676682285704</v>
       </c>
       <c r="Y39" t="n">
-        <v>233.5676682285704</v>
+        <v>154.6596722054047</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="C40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="D40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="E40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="F40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="G40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="H40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="I40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="J40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="K40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="L40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="M40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="N40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="O40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="P40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="Q40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="R40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="S40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="T40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="U40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="V40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="W40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="X40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
       <c r="Y40" t="n">
-        <v>6.249513285034721</v>
+        <v>6.249513285034723</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6.249513285034723</v>
+        <v>213.3508811937447</v>
       </c>
       <c r="C41" t="n">
-        <v>6.249513285034723</v>
+        <v>144.0631177507255</v>
       </c>
       <c r="D41" t="n">
-        <v>6.249513285034723</v>
+        <v>144.0631177507255</v>
       </c>
       <c r="E41" t="n">
-        <v>6.249513285034723</v>
+        <v>74.77535430770631</v>
       </c>
       <c r="F41" t="n">
-        <v>6.249513285034723</v>
+        <v>74.77535430770631</v>
       </c>
       <c r="G41" t="n">
-        <v>6.249513285034723</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="H41" t="n">
-        <v>6.249513285034723</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="I41" t="n">
-        <v>6.249513285034723</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="J41" t="n">
-        <v>6.249513285034723</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="K41" t="n">
-        <v>6.929473467016251</v>
+        <v>6.167551046668551</v>
       </c>
       <c r="L41" t="n">
-        <v>65.73931599410641</v>
+        <v>64.9773935737587</v>
       </c>
       <c r="M41" t="n">
-        <v>143.077042896411</v>
+        <v>132.8863305242618</v>
       </c>
       <c r="N41" t="n">
-        <v>220.4147697987157</v>
+        <v>191.7474387331372</v>
       </c>
       <c r="O41" t="n">
-        <v>297.7524967010204</v>
+        <v>259.6563756836403</v>
       </c>
       <c r="P41" t="n">
-        <v>312.4756642517361</v>
+        <v>274.379543234356</v>
       </c>
       <c r="Q41" t="n">
-        <v>244.1674307537116</v>
+        <v>274.379543234356</v>
       </c>
       <c r="R41" t="n">
-        <v>244.1674307537116</v>
+        <v>274.379543234356</v>
       </c>
       <c r="S41" t="n">
-        <v>244.1674307537116</v>
+        <v>274.379543234356</v>
       </c>
       <c r="T41" t="n">
-        <v>244.1674307537116</v>
+        <v>274.379543234356</v>
       </c>
       <c r="U41" t="n">
-        <v>244.1674307537116</v>
+        <v>274.379543234356</v>
       </c>
       <c r="V41" t="n">
-        <v>244.1674307537116</v>
+        <v>213.3508811937447</v>
       </c>
       <c r="W41" t="n">
-        <v>165.2594347305459</v>
+        <v>213.3508811937447</v>
       </c>
       <c r="X41" t="n">
-        <v>164.0655053313661</v>
+        <v>213.3508811937447</v>
       </c>
       <c r="Y41" t="n">
-        <v>85.15750930820042</v>
+        <v>213.3508811937447</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>132.2755991854313</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="C42" t="n">
-        <v>53.36760316226561</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="D42" t="n">
-        <v>6.249513285034723</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="E42" t="n">
-        <v>6.249513285034723</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="F42" t="n">
-        <v>6.249513285034723</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="G42" t="n">
-        <v>6.249513285034723</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="H42" t="n">
-        <v>6.249513285034723</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="I42" t="n">
-        <v>6.249513285034723</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="J42" t="n">
-        <v>6.249513285034723</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="K42" t="n">
-        <v>6.249513285034723</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="L42" t="n">
-        <v>83.58724018733942</v>
+        <v>73.39652781519023</v>
       </c>
       <c r="M42" t="n">
-        <v>160.9249670896441</v>
+        <v>119.0251672624967</v>
       </c>
       <c r="N42" t="n">
-        <v>235.1379373494314</v>
+        <v>186.9341042129998</v>
       </c>
       <c r="O42" t="n">
-        <v>312.4756642517361</v>
+        <v>254.8430411635029</v>
       </c>
       <c r="P42" t="n">
-        <v>312.4756642517361</v>
+        <v>274.379543234356</v>
       </c>
       <c r="Q42" t="n">
-        <v>290.0915912317627</v>
+        <v>274.379543234356</v>
       </c>
       <c r="R42" t="n">
-        <v>290.0915912317627</v>
+        <v>274.379543234356</v>
       </c>
       <c r="S42" t="n">
-        <v>290.0915912317627</v>
+        <v>274.379543234356</v>
       </c>
       <c r="T42" t="n">
-        <v>290.0915912317627</v>
+        <v>205.0917797913368</v>
       </c>
       <c r="U42" t="n">
-        <v>290.0915912317627</v>
+        <v>205.0917797913368</v>
       </c>
       <c r="V42" t="n">
-        <v>290.0915912317627</v>
+        <v>205.0917797913368</v>
       </c>
       <c r="W42" t="n">
-        <v>211.183595208597</v>
+        <v>144.0631177507255</v>
       </c>
       <c r="X42" t="n">
-        <v>211.183595208597</v>
+        <v>74.77535430770631</v>
       </c>
       <c r="Y42" t="n">
-        <v>132.2755991854313</v>
+        <v>74.77535430770631</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>6.249513285034723</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="C43" t="n">
-        <v>6.249513285034723</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="D43" t="n">
-        <v>6.249513285034723</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="E43" t="n">
-        <v>6.249513285034723</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="F43" t="n">
-        <v>6.249513285034723</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="G43" t="n">
-        <v>6.249513285034723</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="H43" t="n">
-        <v>6.249513285034723</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="I43" t="n">
-        <v>6.249513285034723</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="J43" t="n">
-        <v>6.249513285034723</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="K43" t="n">
-        <v>6.249513285034723</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="L43" t="n">
-        <v>6.249513285034723</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="M43" t="n">
-        <v>6.249513285034723</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="N43" t="n">
-        <v>6.249513285034723</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="O43" t="n">
-        <v>6.249513285034723</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="P43" t="n">
-        <v>6.249513285034723</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="Q43" t="n">
-        <v>6.249513285034723</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="R43" t="n">
-        <v>6.249513285034723</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="S43" t="n">
-        <v>6.249513285034723</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="T43" t="n">
-        <v>6.249513285034723</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="U43" t="n">
-        <v>6.249513285034723</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="V43" t="n">
-        <v>6.249513285034723</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="W43" t="n">
-        <v>6.249513285034723</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="X43" t="n">
-        <v>6.249513285034723</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="Y43" t="n">
-        <v>6.249513285034723</v>
+        <v>5.48759086468712</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>79.66772666453693</v>
+        <v>67.93280039258397</v>
       </c>
       <c r="C44" t="n">
-        <v>79.66772666453693</v>
+        <v>67.93280039258397</v>
       </c>
       <c r="D44" t="n">
-        <v>79.66772666453693</v>
+        <v>67.93280039258397</v>
       </c>
       <c r="E44" t="n">
-        <v>79.66772666453693</v>
+        <v>67.93280039258397</v>
       </c>
       <c r="F44" t="n">
-        <v>5.846630793023837</v>
+        <v>67.93280039258397</v>
       </c>
       <c r="G44" t="n">
-        <v>5.846630793023837</v>
+        <v>67.93280039258397</v>
       </c>
       <c r="H44" t="n">
-        <v>5.846630793023837</v>
+        <v>67.93280039258397</v>
       </c>
       <c r="I44" t="n">
-        <v>5.846630793023837</v>
+        <v>67.93280039258397</v>
       </c>
       <c r="J44" t="n">
-        <v>5.846630793023837</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="K44" t="n">
-        <v>5.846630793023837</v>
+        <v>6.167551046668551</v>
       </c>
       <c r="L44" t="n">
-        <v>64.65647332011399</v>
+        <v>64.9773935737587</v>
       </c>
       <c r="M44" t="n">
-        <v>132.9042599731362</v>
+        <v>132.8863305242618</v>
       </c>
       <c r="N44" t="n">
-        <v>205.2563160368062</v>
+        <v>200.7952674747649</v>
       </c>
       <c r="O44" t="n">
-        <v>277.6083721004762</v>
+        <v>259.6563756836403</v>
       </c>
       <c r="P44" t="n">
-        <v>292.3315396511919</v>
+        <v>274.379543234356</v>
       </c>
       <c r="Q44" t="n">
-        <v>227.3099184075631</v>
+        <v>206.5083272786223</v>
       </c>
       <c r="R44" t="n">
-        <v>227.3099184075631</v>
+        <v>137.2205638356032</v>
       </c>
       <c r="S44" t="n">
-        <v>227.3099184075631</v>
+        <v>137.2205638356032</v>
       </c>
       <c r="T44" t="n">
-        <v>153.48882253605</v>
+        <v>137.2205638356032</v>
       </c>
       <c r="U44" t="n">
-        <v>153.48882253605</v>
+        <v>137.2205638356032</v>
       </c>
       <c r="V44" t="n">
-        <v>153.48882253605</v>
+        <v>137.2205638356032</v>
       </c>
       <c r="W44" t="n">
-        <v>153.48882253605</v>
+        <v>137.2205638356032</v>
       </c>
       <c r="X44" t="n">
-        <v>153.48882253605</v>
+        <v>137.2205638356032</v>
       </c>
       <c r="Y44" t="n">
-        <v>153.48882253605</v>
+        <v>67.93280039258397</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>48.48417901667918</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="C45" t="n">
-        <v>48.48417901667918</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="D45" t="n">
-        <v>48.48417901667918</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="E45" t="n">
-        <v>48.48417901667918</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="F45" t="n">
-        <v>48.48417901667918</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="G45" t="n">
-        <v>48.48417901667918</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="H45" t="n">
-        <v>48.48417901667918</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="I45" t="n">
-        <v>5.846630793023837</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="J45" t="n">
-        <v>5.846630793023837</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="K45" t="n">
-        <v>5.846630793023837</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="L45" t="n">
-        <v>78.19868685669383</v>
+        <v>25.02409293554019</v>
       </c>
       <c r="M45" t="n">
-        <v>150.5507429203638</v>
+        <v>70.65273238284665</v>
       </c>
       <c r="N45" t="n">
-        <v>219.9794835875219</v>
+        <v>138.5616693333498</v>
       </c>
       <c r="O45" t="n">
-        <v>292.3315396511919</v>
+        <v>206.4706062838529</v>
       </c>
       <c r="P45" t="n">
-        <v>292.3315396511919</v>
+        <v>274.379543234356</v>
       </c>
       <c r="Q45" t="n">
-        <v>269.9474666312184</v>
+        <v>274.379543234356</v>
       </c>
       <c r="R45" t="n">
-        <v>269.9474666312184</v>
+        <v>274.379543234356</v>
       </c>
       <c r="S45" t="n">
-        <v>269.9474666312184</v>
+        <v>274.379543234356</v>
       </c>
       <c r="T45" t="n">
-        <v>269.9474666312184</v>
+        <v>274.379543234356</v>
       </c>
       <c r="U45" t="n">
-        <v>196.1263707597054</v>
+        <v>274.379543234356</v>
       </c>
       <c r="V45" t="n">
-        <v>122.3052748881923</v>
+        <v>205.0917797913368</v>
       </c>
       <c r="W45" t="n">
-        <v>122.3052748881923</v>
+        <v>135.8040163483176</v>
       </c>
       <c r="X45" t="n">
-        <v>48.48417901667918</v>
+        <v>66.51625290529846</v>
       </c>
       <c r="Y45" t="n">
-        <v>48.48417901667918</v>
+        <v>5.48759086468712</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5.846630793023837</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="C46" t="n">
-        <v>5.846630793023837</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="D46" t="n">
-        <v>5.846630793023837</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="E46" t="n">
-        <v>5.846630793023837</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="F46" t="n">
-        <v>5.846630793023837</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="G46" t="n">
-        <v>5.846630793023837</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="H46" t="n">
-        <v>5.846630793023837</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="I46" t="n">
-        <v>5.846630793023837</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="J46" t="n">
-        <v>5.846630793023837</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="K46" t="n">
-        <v>5.846630793023837</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="L46" t="n">
-        <v>5.846630793023837</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="M46" t="n">
-        <v>5.846630793023837</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="N46" t="n">
-        <v>5.846630793023837</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="O46" t="n">
-        <v>5.846630793023837</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="P46" t="n">
-        <v>5.846630793023837</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.846630793023837</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="R46" t="n">
-        <v>5.846630793023837</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="S46" t="n">
-        <v>5.846630793023837</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="T46" t="n">
-        <v>5.846630793023837</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="U46" t="n">
-        <v>5.846630793023837</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="V46" t="n">
-        <v>5.846630793023837</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="W46" t="n">
-        <v>5.846630793023837</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="X46" t="n">
-        <v>5.846630793023837</v>
+        <v>5.48759086468712</v>
       </c>
       <c r="Y46" t="n">
-        <v>5.846630793023837</v>
+        <v>5.48759086468712</v>
       </c>
     </row>
   </sheetData>
@@ -7990,7 +7990,7 @@
         <v>116.8735187081365</v>
       </c>
       <c r="N2" t="n">
-        <v>111.9488011414238</v>
+        <v>113.7102003471159</v>
       </c>
       <c r="O2" t="n">
         <v>99.00804712831379</v>
@@ -8063,19 +8063,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L3" t="n">
-        <v>57.07593346819701</v>
+        <v>58.22273991262165</v>
       </c>
       <c r="M3" t="n">
-        <v>38.00954882322068</v>
+        <v>39.34781785249876</v>
       </c>
       <c r="N3" t="n">
-        <v>17.73005030863851</v>
+        <v>19.10373933697781</v>
       </c>
       <c r="O3" t="n">
-        <v>49.04422963853119</v>
+        <v>50.30088672752632</v>
       </c>
       <c r="P3" t="n">
-        <v>67.92252959633598</v>
+        <v>68.93110769910052</v>
       </c>
       <c r="Q3" t="n">
         <v>54.62009481132077</v>
@@ -8300,7 +8300,7 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L6" t="n">
-        <v>57.07593346819698</v>
+        <v>57.07593346819701</v>
       </c>
       <c r="M6" t="n">
         <v>38.00954882322068</v>
@@ -8312,7 +8312,7 @@
         <v>49.04422963853119</v>
       </c>
       <c r="P6" t="n">
-        <v>67.92252959633595</v>
+        <v>67.92252959633598</v>
       </c>
       <c r="Q6" t="n">
         <v>54.62009481132077</v>
@@ -8537,19 +8537,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L9" t="n">
-        <v>57.07593346819701</v>
+        <v>57.07593346819698</v>
       </c>
       <c r="M9" t="n">
-        <v>38.00954882322068</v>
+        <v>38.00954882322065</v>
       </c>
       <c r="N9" t="n">
-        <v>17.73005030863851</v>
+        <v>17.73005030863848</v>
       </c>
       <c r="O9" t="n">
-        <v>49.04422963853119</v>
+        <v>49.04422963853116</v>
       </c>
       <c r="P9" t="n">
-        <v>67.92252959633598</v>
+        <v>67.92252959633595</v>
       </c>
       <c r="Q9" t="n">
         <v>54.62009481132077</v>
@@ -8695,16 +8695,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>97.57749475319173</v>
+        <v>108.5919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>58.17542054254062</v>
+        <v>71.00388251291275</v>
       </c>
       <c r="N11" t="n">
-        <v>50.48627635857534</v>
+        <v>64.6104575736216</v>
       </c>
       <c r="O11" t="n">
-        <v>70.38324336450154</v>
+        <v>83.21170533487367</v>
       </c>
       <c r="P11" t="n">
         <v>83.66766412458549</v>
@@ -8774,16 +8774,16 @@
         <v>48.6785506654351</v>
       </c>
       <c r="L12" t="n">
-        <v>29.09234327515469</v>
+        <v>41.92080524552681</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>11.01442102992539</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>14.01257950821875</v>
+        <v>28.13676072326501</v>
       </c>
       <c r="P12" t="n">
         <v>15.10822991808962</v>
@@ -8932,16 +8932,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>97.57749475319173</v>
+        <v>108.5919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>58.17542054254062</v>
+        <v>71.00388251291281</v>
       </c>
       <c r="N14" t="n">
-        <v>51.78199560324947</v>
+        <v>64.61045757362166</v>
       </c>
       <c r="O14" t="n">
-        <v>69.08752411982741</v>
+        <v>83.21170533487367</v>
       </c>
       <c r="P14" t="n">
         <v>83.66766412458549</v>
@@ -9008,10 +9008,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>48.6785506654351</v>
+        <v>48.67855066543515</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>36.17447372266027</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>11.03587147768857</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>47.17728122377449</v>
+        <v>60.00574319414659</v>
       </c>
       <c r="Q15" t="n">
         <v>54.62009481132077</v>
@@ -9172,13 +9172,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>72.49379204671058</v>
+        <v>81.46745043665857</v>
       </c>
       <c r="N17" t="n">
-        <v>70.7002732673871</v>
+        <v>74.85970676323166</v>
       </c>
       <c r="O17" t="n">
-        <v>90.11574129636159</v>
+        <v>94.21102294949463</v>
       </c>
       <c r="P17" t="n">
         <v>83.66766412458549</v>
@@ -9245,22 +9245,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>41.6040248874732</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L18" t="n">
-        <v>53.10856794696807</v>
+        <v>56.86633778059159</v>
       </c>
       <c r="M18" t="n">
-        <v>19.77765552785541</v>
+        <v>26.31097280197476</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>38.41333019225669</v>
+        <v>16.77743531494833</v>
       </c>
       <c r="P18" t="n">
-        <v>6.74223857384905</v>
+        <v>7.401389152773731</v>
       </c>
       <c r="Q18" t="n">
         <v>54.62009481132077</v>
@@ -9409,13 +9409,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>82.36237834091651</v>
+        <v>81.46745043665857</v>
       </c>
       <c r="N20" t="n">
-        <v>75.73630441752317</v>
+        <v>74.85970676323166</v>
       </c>
       <c r="O20" t="n">
-        <v>95.15177244649766</v>
+        <v>94.21102294949463</v>
       </c>
       <c r="P20" t="n">
         <v>83.66766412458549</v>
@@ -9482,22 +9482,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>41.6040248874732</v>
+        <v>42.16142180199088</v>
       </c>
       <c r="L21" t="n">
-        <v>58.14459909710413</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>15.70526358678043</v>
       </c>
       <c r="N21" t="n">
-        <v>2.461723077643356</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>42.24289230033614</v>
       </c>
       <c r="P21" t="n">
-        <v>77.3761186606599</v>
+        <v>76.00751898445139</v>
       </c>
       <c r="Q21" t="n">
         <v>54.62009481132077</v>
@@ -9646,13 +9646,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>86.06568567569724</v>
+        <v>86.06568567569717</v>
       </c>
       <c r="N23" t="n">
-        <v>79.37841942921136</v>
+        <v>79.37841942921129</v>
       </c>
       <c r="O23" t="n">
-        <v>99.00804712831379</v>
+        <v>99.00804712831375</v>
       </c>
       <c r="P23" t="n">
         <v>83.66766412458549</v>
@@ -9719,22 +9719,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>39.74325309514506</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L24" t="n">
-        <v>63.12759776494028</v>
+        <v>1.027347432347884</v>
       </c>
       <c r="M24" t="n">
-        <v>32.02938126767498</v>
+        <v>32.02938126767489</v>
       </c>
       <c r="N24" t="n">
-        <v>6.367710413418479</v>
+        <v>9.52403025434495</v>
       </c>
       <c r="O24" t="n">
-        <v>48.19269409939369</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>4.54178002767793</v>
+        <v>82.66069609061194</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9883,13 +9883,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>86.06568567569724</v>
+        <v>86.06568567569718</v>
       </c>
       <c r="N26" t="n">
-        <v>79.37841942921136</v>
+        <v>79.37841942921131</v>
       </c>
       <c r="O26" t="n">
-        <v>99.00804712831379</v>
+        <v>99.00804712831376</v>
       </c>
       <c r="P26" t="n">
         <v>83.66766412458549</v>
@@ -9956,10 +9956,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>39.74325309514509</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L27" t="n">
-        <v>63.12759776494022</v>
+        <v>42.58075895436775</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,10 +9968,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>48.19269409939366</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>42.93887170877129</v>
+        <v>82.66069609061194</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10120,13 +10120,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>86.0656856756973</v>
+        <v>86.06568567569718</v>
       </c>
       <c r="N29" t="n">
-        <v>79.37841942921142</v>
+        <v>79.37841942921131</v>
       </c>
       <c r="O29" t="n">
-        <v>99.00804712831388</v>
+        <v>99.00804712831379</v>
       </c>
       <c r="P29" t="n">
         <v>83.66766412458549</v>
@@ -10193,22 +10193,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>39.74325309514509</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>23.40577338309971</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>48.19269409939372</v>
+        <v>42.58075895436772</v>
       </c>
       <c r="P30" t="n">
-        <v>82.66069609061205</v>
+        <v>82.66069609061194</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10357,13 +10357,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>86.0656856756973</v>
+        <v>86.06568567569717</v>
       </c>
       <c r="N32" t="n">
-        <v>79.37841942921142</v>
+        <v>79.37841942921129</v>
       </c>
       <c r="O32" t="n">
-        <v>99.00804712831388</v>
+        <v>99.00804712831379</v>
       </c>
       <c r="P32" t="n">
         <v>83.66766412458549</v>
@@ -10433,19 +10433,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L33" t="n">
-        <v>42.58075895436814</v>
+        <v>63.12759776494018</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>32.02938126767491</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>25.54269598468662</v>
       </c>
       <c r="P33" t="n">
-        <v>82.66069609061205</v>
+        <v>4.541780027677959</v>
       </c>
       <c r="Q33" t="n">
         <v>54.62009481132077</v>
@@ -10673,13 +10673,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>23.40577338309954</v>
+        <v>23.40577338309959</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>48.19269409939366</v>
+        <v>48.19269409939372</v>
       </c>
       <c r="P36" t="n">
         <v>82.66069609061199</v>
@@ -10907,19 +10907,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L39" t="n">
-        <v>63.12759776494023</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>9.379383152968011</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>48.19269409939366</v>
+        <v>42.58075895436794</v>
       </c>
       <c r="P39" t="n">
-        <v>4.541780027677959</v>
+        <v>82.66069609061199</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11068,13 +11068,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>86.06568567569724</v>
+        <v>76.5416554213522</v>
       </c>
       <c r="N41" t="n">
-        <v>79.37841942921136</v>
+        <v>60.7151682237272</v>
       </c>
       <c r="O41" t="n">
-        <v>99.00804712831379</v>
+        <v>89.48401687396881</v>
       </c>
       <c r="P41" t="n">
         <v>83.66766412458549</v>
@@ -11144,19 +11144,19 @@
         <v>39.74325309514509</v>
       </c>
       <c r="L42" t="n">
-        <v>63.12759776494025</v>
+        <v>53.60356751059521</v>
       </c>
       <c r="M42" t="n">
-        <v>32.02938126767498</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>6.367710413418422</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>48.19269409939372</v>
+        <v>38.66866384504866</v>
       </c>
       <c r="P42" t="n">
-        <v>4.541780027677959</v>
+        <v>24.27562050328714</v>
       </c>
       <c r="Q42" t="n">
         <v>54.62009481132077</v>
@@ -11299,19 +11299,19 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>83.59097880185493</v>
+        <v>84.27780726850284</v>
       </c>
       <c r="L44" t="n">
         <v>108.5919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>76.88392784813919</v>
+        <v>76.5416554213522</v>
       </c>
       <c r="N44" t="n">
-        <v>74.34238827907529</v>
+        <v>69.85438917486633</v>
       </c>
       <c r="O44" t="n">
-        <v>93.97201597817775</v>
+        <v>80.34479592282969</v>
       </c>
       <c r="P44" t="n">
         <v>83.66766412458549</v>
@@ -11381,19 +11381,19 @@
         <v>39.74325309514509</v>
       </c>
       <c r="L45" t="n">
-        <v>58.09156661480418</v>
+        <v>4.742522177615374</v>
       </c>
       <c r="M45" t="n">
-        <v>26.99335011753891</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1.535155269348465</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>43.15666294925765</v>
+        <v>38.66866384504866</v>
       </c>
       <c r="P45" t="n">
-        <v>4.541780027677959</v>
+        <v>73.13666583626699</v>
       </c>
       <c r="Q45" t="n">
         <v>54.62009481132077</v>
@@ -22561,49 +22561,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G2" t="n">
-        <v>422.3372670711946</v>
+        <v>422.3471385867855</v>
       </c>
       <c r="H2" t="n">
-        <v>351.2646082720821</v>
+        <v>351.3657049311285</v>
       </c>
       <c r="I2" t="n">
-        <v>259.3256225831108</v>
+        <v>259.706194187933</v>
       </c>
       <c r="J2" t="n">
-        <v>114.4715681708149</v>
+        <v>115.309400717207</v>
       </c>
       <c r="K2" t="n">
-        <v>78.22308851520964</v>
+        <v>79.47878231656895</v>
       </c>
       <c r="L2" t="n">
-        <v>38.49084836766588</v>
+        <v>40.04864756429342</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.733351762019083</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>26.40184904719007</v>
+        <v>28.06508836972404</v>
       </c>
       <c r="P2" t="n">
-        <v>74.33416843326194</v>
+        <v>75.75370471464296</v>
       </c>
       <c r="Q2" t="n">
-        <v>134.6151832766775</v>
+        <v>135.6811959059556</v>
       </c>
       <c r="R2" t="n">
-        <v>219.5016765828794</v>
+        <v>220.1217681741228</v>
       </c>
       <c r="S2" t="n">
-        <v>238.8380493076577</v>
+        <v>239.0629964691877</v>
       </c>
       <c r="T2" t="n">
-        <v>220.0295900296067</v>
+        <v>220.0728025891063</v>
       </c>
       <c r="U2" t="n">
-        <v>248.8013691764946</v>
+        <v>248.8021588977418</v>
       </c>
       <c r="V2" t="n">
         <v>313.3044420010231</v>
@@ -22640,19 +22640,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G3" t="n">
-        <v>161.0988061285559</v>
+        <v>161.1040878550346</v>
       </c>
       <c r="H3" t="n">
-        <v>138.5600717100643</v>
+        <v>138.6110820684246</v>
       </c>
       <c r="I3" t="n">
-        <v>119.8373846403433</v>
+        <v>120.0192335563868</v>
       </c>
       <c r="J3" t="n">
-        <v>89.37922894870135</v>
+        <v>89.87823627360493</v>
       </c>
       <c r="K3" t="n">
-        <v>24.57889804244017</v>
+        <v>25.43178104141768</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -22670,19 +22670,19 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>64.52858488856607</v>
+        <v>65.20279264048071</v>
       </c>
       <c r="R3" t="n">
-        <v>159.5976691093343</v>
+        <v>159.9255994603549</v>
       </c>
       <c r="S3" t="n">
-        <v>209.5797834947361</v>
+        <v>209.6778892475315</v>
       </c>
       <c r="T3" t="n">
-        <v>230.4332280611984</v>
+        <v>230.4545171253824</v>
       </c>
       <c r="U3" t="n">
-        <v>249.6550702462619</v>
+        <v>249.6554177282671</v>
       </c>
       <c r="V3" t="n">
         <v>249.2999251801724</v>
@@ -22719,49 +22719,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G4" t="n">
-        <v>169.30467002737</v>
+        <v>169.3090980494251</v>
       </c>
       <c r="H4" t="n">
-        <v>168.2025540396188</v>
+        <v>168.2419231811629</v>
       </c>
       <c r="I4" t="n">
-        <v>169.8493025891331</v>
+        <v>169.9824652887527</v>
       </c>
       <c r="J4" t="n">
-        <v>137.2497006419296</v>
+        <v>137.5627618012226</v>
       </c>
       <c r="K4" t="n">
-        <v>95.63058149505842</v>
+        <v>96.14503714836491</v>
       </c>
       <c r="L4" t="n">
-        <v>71.46654840866279</v>
+        <v>72.12487452401287</v>
       </c>
       <c r="M4" t="n">
-        <v>68.6653364331837</v>
+        <v>69.35944901768788</v>
       </c>
       <c r="N4" t="n">
-        <v>56.06123914516952</v>
+        <v>56.73884728383211</v>
       </c>
       <c r="O4" t="n">
-        <v>80.66114959698194</v>
+        <v>81.2870303870922</v>
       </c>
       <c r="P4" t="n">
-        <v>98.35025284028562</v>
+        <v>98.88580198047258</v>
       </c>
       <c r="Q4" t="n">
-        <v>157.5243583765053</v>
+        <v>157.895144841498</v>
       </c>
       <c r="R4" t="n">
-        <v>224.2138859994434</v>
+        <v>224.4129859729374</v>
       </c>
       <c r="S4" t="n">
-        <v>244.9169435351811</v>
+        <v>244.9941118831771</v>
       </c>
       <c r="T4" t="n">
-        <v>218.3869624620415</v>
+        <v>218.4058821926404</v>
       </c>
       <c r="U4" t="n">
-        <v>291.2234139120339</v>
+        <v>291.2236554405096</v>
       </c>
       <c r="V4" t="n">
         <v>237.3615500762718</v>
@@ -22810,7 +22810,7 @@
         <v>114.4715681708149</v>
       </c>
       <c r="K5" t="n">
-        <v>78.22308851520961</v>
+        <v>78.22308851520964</v>
       </c>
       <c r="L5" t="n">
         <v>38.49084836766588</v>
@@ -22822,10 +22822,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>26.40184904719004</v>
+        <v>26.40184904719007</v>
       </c>
       <c r="P5" t="n">
-        <v>74.33416843326191</v>
+        <v>74.33416843326194</v>
       </c>
       <c r="Q5" t="n">
         <v>134.6151832766775</v>
@@ -22889,7 +22889,7 @@
         <v>89.37922894870135</v>
       </c>
       <c r="K6" t="n">
-        <v>24.57889804244016</v>
+        <v>24.57889804244017</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22907,7 +22907,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>64.52858488856606</v>
+        <v>64.52858488856607</v>
       </c>
       <c r="R6" t="n">
         <v>159.5976691093343</v>
@@ -22971,16 +22971,16 @@
         <v>95.63058149505842</v>
       </c>
       <c r="L7" t="n">
-        <v>71.46654840866277</v>
+        <v>71.46654840866279</v>
       </c>
       <c r="M7" t="n">
-        <v>68.66533643318368</v>
+        <v>68.6653364331837</v>
       </c>
       <c r="N7" t="n">
         <v>56.06123914516952</v>
       </c>
       <c r="O7" t="n">
-        <v>80.66114959698193</v>
+        <v>80.66114959698194</v>
       </c>
       <c r="P7" t="n">
         <v>98.35025284028562</v>
@@ -23047,10 +23047,10 @@
         <v>114.4715681708149</v>
       </c>
       <c r="K8" t="n">
-        <v>78.22308851520964</v>
+        <v>78.22308851520961</v>
       </c>
       <c r="L8" t="n">
-        <v>38.49084836766588</v>
+        <v>38.49084836766585</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -23059,10 +23059,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>26.40184904719007</v>
+        <v>26.40184904719004</v>
       </c>
       <c r="P8" t="n">
-        <v>74.33416843326194</v>
+        <v>74.33416843326191</v>
       </c>
       <c r="Q8" t="n">
         <v>134.6151832766775</v>
@@ -23126,7 +23126,7 @@
         <v>89.37922894870135</v>
       </c>
       <c r="K9" t="n">
-        <v>24.57889804244017</v>
+        <v>24.57889804244016</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -23144,7 +23144,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>64.52858488856607</v>
+        <v>64.52858488856606</v>
       </c>
       <c r="R9" t="n">
         <v>159.5976691093343</v>
@@ -23205,22 +23205,22 @@
         <v>137.2497006419296</v>
       </c>
       <c r="K10" t="n">
-        <v>95.63058149505842</v>
+        <v>95.63058149505841</v>
       </c>
       <c r="L10" t="n">
-        <v>71.46654840866279</v>
+        <v>71.46654840866277</v>
       </c>
       <c r="M10" t="n">
-        <v>68.6653364331837</v>
+        <v>68.66533643318368</v>
       </c>
       <c r="N10" t="n">
-        <v>56.06123914516952</v>
+        <v>56.06123914516951</v>
       </c>
       <c r="O10" t="n">
-        <v>80.66114959698194</v>
+        <v>80.66114959698193</v>
       </c>
       <c r="P10" t="n">
-        <v>98.35025284028562</v>
+        <v>98.35025284028561</v>
       </c>
       <c r="Q10" t="n">
         <v>157.5243583765053</v>
@@ -23269,22 +23269,22 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F11" t="n">
-        <v>399.146417573369</v>
+        <v>354.248904297312</v>
       </c>
       <c r="G11" t="n">
-        <v>389.7512928011178</v>
+        <v>421.8203441068026</v>
       </c>
       <c r="H11" t="n">
-        <v>313.9016196573186</v>
+        <v>345.9706709630035</v>
       </c>
       <c r="I11" t="n">
-        <v>207.3278986927069</v>
+        <v>239.3969499983917</v>
       </c>
       <c r="J11" t="n">
-        <v>42.35195733170992</v>
+        <v>70.59837772175715</v>
       </c>
       <c r="K11" t="n">
-        <v>12.46854898344239</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -23314,10 +23314,10 @@
         <v>217.7667597529811</v>
       </c>
       <c r="U11" t="n">
-        <v>248.7600153393432</v>
+        <v>203.8625020632862</v>
       </c>
       <c r="V11" t="n">
-        <v>313.3044420010231</v>
+        <v>286.2272612909145</v>
       </c>
       <c r="W11" t="n">
         <v>325.3917254792934</v>
@@ -23326,7 +23326,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y11" t="n">
-        <v>377.9289763951821</v>
+        <v>333.0314631191251</v>
       </c>
     </row>
     <row r="12">
@@ -23336,22 +23336,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>188.0127573810344</v>
+        <v>143.1152441049774</v>
       </c>
       <c r="C12" t="n">
-        <v>203.8424276152394</v>
+        <v>164.2966979216884</v>
       </c>
       <c r="D12" t="n">
         <v>172.0989423795122</v>
       </c>
       <c r="E12" t="n">
-        <v>155.391493991918</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F12" t="n">
-        <v>141.9152968196391</v>
+        <v>129.0868348492669</v>
       </c>
       <c r="G12" t="n">
-        <v>128.7531766537627</v>
+        <v>160.8222279594475</v>
       </c>
       <c r="H12" t="n">
         <v>135.8889088663072</v>
@@ -23360,7 +23360,7 @@
         <v>110.314846800428</v>
       </c>
       <c r="J12" t="n">
-        <v>35.00223688863932</v>
+        <v>63.24865727868655</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23393,7 +23393,7 @@
         <v>229.3184239497484</v>
       </c>
       <c r="U12" t="n">
-        <v>249.6368743140837</v>
+        <v>204.7393610380267</v>
       </c>
       <c r="V12" t="n">
         <v>249.2999251801724</v>
@@ -23506,22 +23506,22 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F14" t="n">
-        <v>399.146417573369</v>
+        <v>354.2489042973122</v>
       </c>
       <c r="G14" t="n">
-        <v>393.5739237167554</v>
+        <v>376.9228308307457</v>
       </c>
       <c r="H14" t="n">
-        <v>313.9016196573186</v>
+        <v>345.9706709630035</v>
       </c>
       <c r="I14" t="n">
-        <v>207.3278986927069</v>
+        <v>239.3969499983917</v>
       </c>
       <c r="J14" t="n">
-        <v>38.52932641607228</v>
+        <v>70.59837772175717</v>
       </c>
       <c r="K14" t="n">
-        <v>12.46854898344239</v>
+        <v>12.46854898344245</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -23539,13 +23539,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>78.79331850570077</v>
+        <v>78.79331850570082</v>
       </c>
       <c r="R14" t="n">
-        <v>187.0305144208961</v>
+        <v>147.4847847273452</v>
       </c>
       <c r="S14" t="n">
-        <v>227.0586672565771</v>
+        <v>182.1611539805201</v>
       </c>
       <c r="T14" t="n">
         <v>217.7667597529811</v>
@@ -23576,13 +23576,13 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C15" t="n">
-        <v>203.8424276152394</v>
+        <v>158.9449143391825</v>
       </c>
       <c r="D15" t="n">
-        <v>172.0989423795122</v>
+        <v>127.2014291034553</v>
       </c>
       <c r="E15" t="n">
-        <v>187.4605452976028</v>
+        <v>142.5630320215459</v>
       </c>
       <c r="F15" t="n">
         <v>173.9843481253239</v>
@@ -23597,7 +23597,7 @@
         <v>110.314846800428</v>
       </c>
       <c r="J15" t="n">
-        <v>31.17960597300169</v>
+        <v>63.24865727868658</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23618,7 +23618,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>29.22362421431183</v>
+        <v>29.22362421431185</v>
       </c>
       <c r="R15" t="n">
         <v>142.4255613817112</v>
@@ -23633,13 +23633,13 @@
         <v>249.6368743140837</v>
       </c>
       <c r="V15" t="n">
-        <v>217.2308738744875</v>
+        <v>209.7541954866214</v>
       </c>
       <c r="W15" t="n">
-        <v>251.1802054572462</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X15" t="n">
-        <v>201.7866433209157</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y15" t="n">
         <v>242.8962664135933</v>
@@ -23679,22 +23679,22 @@
         <v>120.8562197214153</v>
       </c>
       <c r="K16" t="n">
-        <v>68.69105646430455</v>
+        <v>68.69105646430457</v>
       </c>
       <c r="L16" t="n">
-        <v>36.99323132314251</v>
+        <v>36.99323132314254</v>
       </c>
       <c r="M16" t="n">
-        <v>32.3180570822221</v>
+        <v>32.31805708222213</v>
       </c>
       <c r="N16" t="n">
-        <v>20.57821685700986</v>
+        <v>20.57821685700989</v>
       </c>
       <c r="O16" t="n">
-        <v>47.88683542028699</v>
+        <v>47.88683542028701</v>
       </c>
       <c r="P16" t="n">
-        <v>70.30616512438972</v>
+        <v>70.30616512438975</v>
       </c>
       <c r="Q16" t="n">
         <v>138.1080856802398</v>
@@ -23734,31 +23734,31 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C17" t="n">
-        <v>333.5971194742085</v>
+        <v>273.1688403184667</v>
       </c>
       <c r="D17" t="n">
-        <v>319.1317556432476</v>
+        <v>250.52562581157</v>
       </c>
       <c r="E17" t="n">
-        <v>359.9585549362873</v>
+        <v>291.3524251046097</v>
       </c>
       <c r="F17" t="n">
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>421.7384614903127</v>
+        <v>353.1387831324463</v>
       </c>
       <c r="H17" t="n">
-        <v>345.1320906168752</v>
+        <v>345.1981617730456</v>
       </c>
       <c r="I17" t="n">
-        <v>236.2401704261609</v>
+        <v>236.4888908702725</v>
       </c>
       <c r="J17" t="n">
-        <v>5.870107657015687</v>
+        <v>64.19625377583392</v>
       </c>
       <c r="K17" t="n">
-        <v>2.052773106102279</v>
+        <v>2.87342476793134</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -23776,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>4.353068167541238</v>
+        <v>70.64760369676023</v>
       </c>
       <c r="R17" t="n">
-        <v>116.2891065761312</v>
+        <v>182.2922129046075</v>
       </c>
       <c r="S17" t="n">
-        <v>159.5949181966363</v>
+        <v>225.339780092787</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4083185992961</v>
+        <v>217.4365599259053</v>
       </c>
       <c r="U17" t="n">
-        <v>248.753464730024</v>
+        <v>248.7539808479289</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>188.0127573810344</v>
+        <v>119.4066275493568</v>
       </c>
       <c r="C18" t="n">
-        <v>203.8424276152394</v>
+        <v>135.2362977835617</v>
       </c>
       <c r="D18" t="n">
         <v>172.0989423795122</v>
@@ -23825,16 +23825,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>160.7784168972378</v>
+        <v>92.17573890836401</v>
       </c>
       <c r="H18" t="n">
-        <v>135.4657862391765</v>
+        <v>135.4991237736244</v>
       </c>
       <c r="I18" t="n">
-        <v>108.8064396146986</v>
+        <v>108.9252859568493</v>
       </c>
       <c r="J18" t="n">
-        <v>59.10947266877599</v>
+        <v>59.43559611543446</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23855,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>23.63118055399721</v>
+        <v>24.07180525997875</v>
       </c>
       <c r="R18" t="n">
-        <v>74.10758351240119</v>
+        <v>79.49147034040256</v>
       </c>
       <c r="S18" t="n">
-        <v>138.0308451079204</v>
+        <v>203.692810510711</v>
       </c>
       <c r="T18" t="n">
-        <v>163.5439856877634</v>
+        <v>229.1557479732836</v>
       </c>
       <c r="U18" t="n">
-        <v>191.8554066639362</v>
+        <v>249.6342191022807</v>
       </c>
       <c r="V18" t="n">
         <v>249.2999251801724</v>
@@ -23904,49 +23904,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G19" t="n">
-        <v>169.0360664584047</v>
+        <v>169.0389603674566</v>
       </c>
       <c r="H19" t="n">
-        <v>165.8144241264549</v>
+        <v>165.8401536087522</v>
       </c>
       <c r="I19" t="n">
-        <v>161.7716607151595</v>
+        <v>161.8586884528278</v>
       </c>
       <c r="J19" t="n">
-        <v>118.2594283160853</v>
+        <v>118.4640276860509</v>
       </c>
       <c r="K19" t="n">
-        <v>64.42373048254834</v>
+        <v>64.75995009784489</v>
       </c>
       <c r="L19" t="n">
-        <v>31.53252325540846</v>
+        <v>31.962768606626</v>
       </c>
       <c r="M19" t="n">
-        <v>26.56050607256464</v>
+        <v>27.01413947057392</v>
       </c>
       <c r="N19" t="n">
-        <v>14.9575675416028</v>
+        <v>15.40041455132791</v>
       </c>
       <c r="O19" t="n">
-        <v>42.69525604905493</v>
+        <v>43.10429693940165</v>
       </c>
       <c r="P19" t="n">
-        <v>65.86387209925009</v>
+        <v>66.21387724493908</v>
       </c>
       <c r="Q19" t="n">
-        <v>135.0324722516046</v>
+        <v>135.2747976723008</v>
       </c>
       <c r="R19" t="n">
-        <v>212.1364927985142</v>
+        <v>212.2666134727909</v>
       </c>
       <c r="S19" t="n">
-        <v>240.2359158833046</v>
+        <v>240.2863488255991</v>
       </c>
       <c r="T19" t="n">
-        <v>217.2392926673717</v>
+        <v>217.2516575515023</v>
       </c>
       <c r="U19" t="n">
-        <v>291.2087628082721</v>
+        <v>291.2089206578568</v>
       </c>
       <c r="V19" t="n">
         <v>237.3615500762718</v>
@@ -23968,34 +23968,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>364.5563275970632</v>
+        <v>295.9501977653855</v>
       </c>
       <c r="C20" t="n">
         <v>333.5971194742085</v>
       </c>
       <c r="D20" t="n">
-        <v>248.4978755564368</v>
+        <v>258.7034764875059</v>
       </c>
       <c r="E20" t="n">
-        <v>289.3246748494764</v>
+        <v>291.3524251046097</v>
       </c>
       <c r="F20" t="n">
-        <v>399.146417573369</v>
+        <v>330.5402877416914</v>
       </c>
       <c r="G20" t="n">
-        <v>421.7384614903127</v>
+        <v>421.744912964124</v>
       </c>
       <c r="H20" t="n">
-        <v>345.1320906168752</v>
+        <v>345.1981617730456</v>
       </c>
       <c r="I20" t="n">
-        <v>236.2401704261609</v>
+        <v>236.4888908702725</v>
       </c>
       <c r="J20" t="n">
-        <v>63.64869300043884</v>
+        <v>64.19625377583392</v>
       </c>
       <c r="K20" t="n">
-        <v>2.052773106102279</v>
+        <v>2.87342476793134</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -24013,19 +24013,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>70.64760369676023</v>
       </c>
       <c r="R20" t="n">
-        <v>181.8869555128061</v>
+        <v>182.2922129046075</v>
       </c>
       <c r="S20" t="n">
-        <v>162.2954825702533</v>
+        <v>225.339780092787</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4083185992961</v>
+        <v>217.4365599259053</v>
       </c>
       <c r="U20" t="n">
-        <v>248.753464730024</v>
+        <v>248.7539808479289</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
@@ -24050,28 +24050,28 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C21" t="n">
-        <v>203.8424276152394</v>
+        <v>135.2362977835617</v>
       </c>
       <c r="D21" t="n">
-        <v>101.4650622927013</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E21" t="n">
-        <v>187.4605452976028</v>
+        <v>118.8544154659252</v>
       </c>
       <c r="F21" t="n">
-        <v>103.350468038513</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
-        <v>160.7784168972378</v>
+        <v>160.7818687400417</v>
       </c>
       <c r="H21" t="n">
-        <v>135.4657862391765</v>
+        <v>135.4991237736244</v>
       </c>
       <c r="I21" t="n">
-        <v>108.8064396146986</v>
+        <v>108.9252859568493</v>
       </c>
       <c r="J21" t="n">
-        <v>59.10947266877599</v>
+        <v>59.43559611543446</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24092,31 +24092,31 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>23.63118055399721</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>139.705432449076</v>
+        <v>139.9197494961443</v>
       </c>
       <c r="S21" t="n">
-        <v>203.6286940445952</v>
+        <v>203.692810510711</v>
       </c>
       <c r="T21" t="n">
-        <v>229.1418346244382</v>
+        <v>229.1557479732836</v>
       </c>
       <c r="U21" t="n">
-        <v>249.6339920073594</v>
+        <v>249.6342191022807</v>
       </c>
       <c r="V21" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W21" t="n">
-        <v>283.2492567629311</v>
+        <v>246.8927828671681</v>
       </c>
       <c r="X21" t="n">
-        <v>167.8187421305</v>
+        <v>161.4269338792853</v>
       </c>
       <c r="Y21" t="n">
-        <v>172.2623863267825</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="22">
@@ -24141,49 +24141,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G22" t="n">
-        <v>169.0360664584047</v>
+        <v>169.0389603674566</v>
       </c>
       <c r="H22" t="n">
-        <v>165.8144241264549</v>
+        <v>165.8401536087522</v>
       </c>
       <c r="I22" t="n">
-        <v>161.7716607151595</v>
+        <v>161.8586884528278</v>
       </c>
       <c r="J22" t="n">
-        <v>118.2594283160853</v>
+        <v>118.4640276860509</v>
       </c>
       <c r="K22" t="n">
-        <v>64.42373048254834</v>
+        <v>64.75995009784489</v>
       </c>
       <c r="L22" t="n">
-        <v>31.53252325540846</v>
+        <v>31.962768606626</v>
       </c>
       <c r="M22" t="n">
-        <v>26.56050607256464</v>
+        <v>27.01413947057392</v>
       </c>
       <c r="N22" t="n">
-        <v>14.9575675416028</v>
+        <v>15.40041455132791</v>
       </c>
       <c r="O22" t="n">
-        <v>42.69525604905493</v>
+        <v>43.10429693940165</v>
       </c>
       <c r="P22" t="n">
-        <v>65.86387209925009</v>
+        <v>66.21387724493908</v>
       </c>
       <c r="Q22" t="n">
-        <v>135.0324722516046</v>
+        <v>135.2747976723008</v>
       </c>
       <c r="R22" t="n">
-        <v>212.1364927985142</v>
+        <v>212.2666134727909</v>
       </c>
       <c r="S22" t="n">
-        <v>240.2359158833046</v>
+        <v>240.2863488255991</v>
       </c>
       <c r="T22" t="n">
-        <v>217.2392926673717</v>
+        <v>217.2516575515023</v>
       </c>
       <c r="U22" t="n">
-        <v>291.2087628082721</v>
+        <v>291.2089206578568</v>
       </c>
       <c r="V22" t="n">
         <v>237.3615500762718</v>
@@ -24211,16 +24211,16 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D23" t="n">
-        <v>241.0128395803135</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E23" t="n">
-        <v>281.8396388733532</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F23" t="n">
-        <v>321.0275015104349</v>
+        <v>321.0275015104351</v>
       </c>
       <c r="G23" t="n">
-        <v>352.9097831088054</v>
+        <v>421.7169243770377</v>
       </c>
       <c r="H23" t="n">
         <v>344.911523655548</v>
@@ -24229,7 +24229,7 @@
         <v>235.4098608666279</v>
       </c>
       <c r="J23" t="n">
-        <v>61.82075743261785</v>
+        <v>61.82075743261788</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,10 +24250,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>67.62515116304428</v>
+        <v>67.62515116304431</v>
       </c>
       <c r="R23" t="n">
-        <v>180.5340748210476</v>
+        <v>102.4151587581137</v>
       </c>
       <c r="S23" t="n">
         <v>224.7019901645579</v>
@@ -24262,10 +24262,10 @@
         <v>217.314039885935</v>
       </c>
       <c r="U23" t="n">
-        <v>248.751741760962</v>
+        <v>170.6328256980281</v>
       </c>
       <c r="V23" t="n">
-        <v>313.3044420010231</v>
+        <v>244.4973007327909</v>
       </c>
       <c r="W23" t="n">
         <v>325.3917254792934</v>
@@ -24284,31 +24284,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>109.8938413181004</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C24" t="n">
         <v>203.8424276152394</v>
       </c>
       <c r="D24" t="n">
-        <v>172.0989423795122</v>
+        <v>93.98002631657825</v>
       </c>
       <c r="E24" t="n">
         <v>187.4605452976028</v>
       </c>
       <c r="F24" t="n">
-        <v>95.86543206238983</v>
+        <v>95.86543206238996</v>
       </c>
       <c r="G24" t="n">
         <v>160.7668935257341</v>
       </c>
       <c r="H24" t="n">
-        <v>66.54735346194813</v>
+        <v>135.3544947301804</v>
       </c>
       <c r="I24" t="n">
         <v>108.4096919554711</v>
       </c>
       <c r="J24" t="n">
-        <v>58.0207667671941</v>
+        <v>58.02076676719412</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24329,10 +24329,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.16023228977367</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>60.87105653085231</v>
+        <v>60.87105653085247</v>
       </c>
       <c r="S24" t="n">
         <v>203.4146524730248</v>
@@ -24341,7 +24341,7 @@
         <v>229.0953873507019</v>
       </c>
       <c r="U24" t="n">
-        <v>249.6332338908131</v>
+        <v>202.9863249123545</v>
       </c>
       <c r="V24" t="n">
         <v>249.2999251801724</v>
@@ -24390,10 +24390,10 @@
         <v>117.5764092206357</v>
       </c>
       <c r="K25" t="n">
-        <v>63.30132029354928</v>
+        <v>63.3013202935493</v>
       </c>
       <c r="L25" t="n">
-        <v>30.09622464579262</v>
+        <v>30.09622464579263</v>
       </c>
       <c r="M25" t="n">
         <v>25.04613057264987</v>
@@ -24402,10 +24402,10 @@
         <v>13.47920050628034</v>
       </c>
       <c r="O25" t="n">
-        <v>41.32974481129614</v>
+        <v>41.32974481129615</v>
       </c>
       <c r="P25" t="n">
-        <v>64.6954413359916</v>
+        <v>64.69544133599162</v>
       </c>
       <c r="Q25" t="n">
         <v>134.2235113556054</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>295.7491863288309</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C26" t="n">
         <v>333.5971194742085</v>
@@ -24451,10 +24451,10 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E26" t="n">
-        <v>359.9585549362873</v>
+        <v>291.1514136680551</v>
       </c>
       <c r="F26" t="n">
-        <v>321.0275015104351</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
         <v>343.5980083141037</v>
@@ -24499,16 +24499,16 @@
         <v>217.314039885935</v>
       </c>
       <c r="U26" t="n">
-        <v>248.751741760962</v>
+        <v>170.6328256980281</v>
       </c>
       <c r="V26" t="n">
-        <v>313.3044420010231</v>
+        <v>235.1855259380891</v>
       </c>
       <c r="W26" t="n">
         <v>325.3917254792934</v>
       </c>
       <c r="X26" t="n">
-        <v>270.6979632405789</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y26" t="n">
         <v>377.9289763951821</v>
@@ -24524,7 +24524,7 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C27" t="n">
-        <v>203.8424276152394</v>
+        <v>157.1955186367809</v>
       </c>
       <c r="D27" t="n">
         <v>172.0989423795122</v>
@@ -24536,7 +24536,7 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G27" t="n">
-        <v>160.7668935257341</v>
+        <v>82.64797746280017</v>
       </c>
       <c r="H27" t="n">
         <v>135.3544947301804</v>
@@ -24566,22 +24566,22 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.16023228977369</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>138.9899725937864</v>
+        <v>60.87105653085247</v>
       </c>
       <c r="S27" t="n">
-        <v>203.4146524730248</v>
+        <v>125.2957364100908</v>
       </c>
       <c r="T27" t="n">
-        <v>150.9764712877679</v>
+        <v>229.0953873507019</v>
       </c>
       <c r="U27" t="n">
-        <v>171.5143178278791</v>
+        <v>249.6332338908131</v>
       </c>
       <c r="V27" t="n">
-        <v>171.1810091172384</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W27" t="n">
         <v>283.2492567629311</v>
@@ -24590,7 +24590,7 @@
         <v>230.033063710963</v>
       </c>
       <c r="Y27" t="n">
-        <v>174.089125145361</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="28">
@@ -24682,10 +24682,10 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C29" t="n">
-        <v>333.5971194742085</v>
+        <v>264.7899782059762</v>
       </c>
       <c r="D29" t="n">
-        <v>319.1317556432476</v>
+        <v>241.0128395803137</v>
       </c>
       <c r="E29" t="n">
         <v>359.9585549362873</v>
@@ -24724,25 +24724,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>67.62515116304431</v>
       </c>
       <c r="R29" t="n">
-        <v>102.4151587581135</v>
+        <v>180.5340748210476</v>
       </c>
       <c r="S29" t="n">
-        <v>146.5830741016238</v>
+        <v>224.7019901645579</v>
       </c>
       <c r="T29" t="n">
-        <v>216.1320497807471</v>
+        <v>217.314039885935</v>
       </c>
       <c r="U29" t="n">
-        <v>248.751741760962</v>
+        <v>170.6328256980281</v>
       </c>
       <c r="V29" t="n">
-        <v>313.3044420010231</v>
+        <v>235.1855259380891</v>
       </c>
       <c r="W29" t="n">
-        <v>247.2728094163593</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X29" t="n">
         <v>348.8168793035129</v>
@@ -24761,7 +24761,7 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C30" t="n">
-        <v>125.7235115523053</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D30" t="n">
         <v>172.0989423795122</v>
@@ -24773,10 +24773,10 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>91.95975225750182</v>
+        <v>160.7668935257341</v>
       </c>
       <c r="H30" t="n">
-        <v>57.23557866724636</v>
+        <v>135.3544947301804</v>
       </c>
       <c r="I30" t="n">
         <v>108.4096919554711</v>
@@ -24806,22 +24806,22 @@
         <v>22.16023228977369</v>
       </c>
       <c r="R30" t="n">
-        <v>138.9899725937864</v>
+        <v>60.87105653085247</v>
       </c>
       <c r="S30" t="n">
-        <v>125.2957364100907</v>
+        <v>125.2957364100908</v>
       </c>
       <c r="T30" t="n">
         <v>229.0953873507019</v>
       </c>
       <c r="U30" t="n">
-        <v>249.6332338908131</v>
+        <v>180.8260926225809</v>
       </c>
       <c r="V30" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W30" t="n">
-        <v>283.2492567629311</v>
+        <v>205.1303406999971</v>
       </c>
       <c r="X30" t="n">
         <v>230.033063710963</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>295.7491863288308</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C32" t="n">
         <v>333.5971194742085</v>
@@ -24925,10 +24925,10 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E32" t="n">
-        <v>281.8396388733532</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F32" t="n">
-        <v>399.146417573369</v>
+        <v>321.0275015104351</v>
       </c>
       <c r="G32" t="n">
         <v>421.7169243770377</v>
@@ -24940,7 +24940,7 @@
         <v>235.4098608666279</v>
       </c>
       <c r="J32" t="n">
-        <v>61.82075743261788</v>
+        <v>60.63876732742991</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>67.62515116304431</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>180.5340748210476</v>
@@ -24973,19 +24973,19 @@
         <v>217.314039885935</v>
       </c>
       <c r="U32" t="n">
-        <v>248.751741760962</v>
+        <v>170.6328256980281</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W32" t="n">
-        <v>247.2728094163593</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X32" t="n">
-        <v>270.6979632405788</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y32" t="n">
-        <v>377.9289763951821</v>
+        <v>299.8100603322482</v>
       </c>
     </row>
     <row r="33">
@@ -25040,28 +25040,28 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>22.16023228977369</v>
       </c>
       <c r="R33" t="n">
-        <v>138.9899725937864</v>
+        <v>60.87105653085247</v>
       </c>
       <c r="S33" t="n">
-        <v>156.7677434945662</v>
+        <v>125.2957364100908</v>
       </c>
       <c r="T33" t="n">
-        <v>150.9764712877678</v>
+        <v>150.9764712877679</v>
       </c>
       <c r="U33" t="n">
-        <v>171.514317827879</v>
+        <v>249.6332338908131</v>
       </c>
       <c r="V33" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W33" t="n">
-        <v>283.2492567629311</v>
+        <v>214.4421154946989</v>
       </c>
       <c r="X33" t="n">
-        <v>151.9141476480289</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y33" t="n">
         <v>242.8962664135933</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>286.4374115341292</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C35" t="n">
-        <v>255.4782034112744</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D35" t="n">
-        <v>241.0128395803136</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E35" t="n">
         <v>359.9585549362873</v>
@@ -25168,7 +25168,7 @@
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>421.7169243770377</v>
+        <v>420.5349342718497</v>
       </c>
       <c r="H35" t="n">
         <v>344.911523655548</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>67.62515116304431</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>180.5340748210476</v>
@@ -25216,13 +25216,13 @@
         <v>313.3044420010231</v>
       </c>
       <c r="W35" t="n">
-        <v>325.3917254792934</v>
+        <v>247.2728094163593</v>
       </c>
       <c r="X35" t="n">
-        <v>348.8168793035129</v>
+        <v>270.6979632405789</v>
       </c>
       <c r="Y35" t="n">
-        <v>309.1218351269499</v>
+        <v>299.8100603322481</v>
       </c>
     </row>
     <row r="36">
@@ -25232,19 +25232,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>109.8938413181004</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C36" t="n">
-        <v>125.7235115523054</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D36" t="n">
-        <v>93.9800263165782</v>
+        <v>93.98002631657818</v>
       </c>
       <c r="E36" t="n">
         <v>187.4605452976028</v>
       </c>
       <c r="F36" t="n">
-        <v>173.9843481253239</v>
+        <v>95.86543206238989</v>
       </c>
       <c r="G36" t="n">
         <v>160.7668935257341</v>
@@ -25289,19 +25289,19 @@
         <v>229.0953873507019</v>
       </c>
       <c r="U36" t="n">
-        <v>249.6332338908131</v>
+        <v>180.8260926225809</v>
       </c>
       <c r="V36" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W36" t="n">
-        <v>283.2492567629311</v>
+        <v>205.1303406999971</v>
       </c>
       <c r="X36" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y36" t="n">
-        <v>174.0891251453611</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="37">
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>364.5563275970632</v>
+        <v>286.4374115341291</v>
       </c>
       <c r="C38" t="n">
-        <v>333.5971194742085</v>
+        <v>255.4782034112744</v>
       </c>
       <c r="D38" t="n">
-        <v>319.1317556432476</v>
+        <v>241.0128395803136</v>
       </c>
       <c r="E38" t="n">
-        <v>291.1514136680551</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F38" t="n">
-        <v>399.146417573369</v>
+        <v>330.3392763051368</v>
       </c>
       <c r="G38" t="n">
         <v>421.7169243770377</v>
@@ -25438,7 +25438,7 @@
         <v>67.62515116304431</v>
       </c>
       <c r="R38" t="n">
-        <v>102.4151587581136</v>
+        <v>180.5340748210476</v>
       </c>
       <c r="S38" t="n">
         <v>224.7019901645579</v>
@@ -25450,10 +25450,10 @@
         <v>248.751741760962</v>
       </c>
       <c r="V38" t="n">
-        <v>235.1855259380891</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W38" t="n">
-        <v>247.2728094163593</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X38" t="n">
         <v>348.8168793035129</v>
@@ -25469,19 +25469,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>188.0127573810344</v>
+        <v>119.2056161128022</v>
       </c>
       <c r="C39" t="n">
-        <v>125.7235115523054</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D39" t="n">
-        <v>93.98002631657819</v>
+        <v>93.98002631657818</v>
       </c>
       <c r="E39" t="n">
         <v>187.4605452976028</v>
       </c>
       <c r="F39" t="n">
-        <v>163.1979736242858</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
         <v>160.7668935257341</v>
@@ -25493,7 +25493,7 @@
         <v>108.4096919554711</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>58.02076676719412</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25523,10 +25523,10 @@
         <v>203.4146524730248</v>
       </c>
       <c r="T39" t="n">
-        <v>150.9764712877679</v>
+        <v>229.0953873507019</v>
       </c>
       <c r="U39" t="n">
-        <v>249.6332338908131</v>
+        <v>171.5143178278791</v>
       </c>
       <c r="V39" t="n">
         <v>249.2999251801724</v>
@@ -25538,7 +25538,7 @@
         <v>230.033063710963</v>
       </c>
       <c r="Y39" t="n">
-        <v>242.8962664135933</v>
+        <v>164.7773503506593</v>
       </c>
     </row>
     <row r="40">
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>286.4374115341291</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C41" t="n">
-        <v>333.5971194742085</v>
+        <v>265.0022336656194</v>
       </c>
       <c r="D41" t="n">
         <v>319.1317556432476</v>
       </c>
       <c r="E41" t="n">
-        <v>359.9585549362873</v>
+        <v>291.3636691276984</v>
       </c>
       <c r="F41" t="n">
         <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
-        <v>421.7169243770377</v>
+        <v>353.1220385684487</v>
       </c>
       <c r="H41" t="n">
         <v>344.911523655548</v>
@@ -25672,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>67.62515116304431</v>
       </c>
       <c r="R41" t="n">
         <v>180.5340748210476</v>
@@ -25687,16 +25687,16 @@
         <v>248.751741760962</v>
       </c>
       <c r="V41" t="n">
-        <v>313.3044420010231</v>
+        <v>252.8860665808179</v>
       </c>
       <c r="W41" t="n">
-        <v>247.2728094163593</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X41" t="n">
-        <v>347.634889198325</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y41" t="n">
-        <v>299.8100603322481</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="42">
@@ -25706,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>188.0127573810344</v>
+        <v>119.4178715724454</v>
       </c>
       <c r="C42" t="n">
-        <v>125.7235115523054</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D42" t="n">
-        <v>125.4520334010536</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E42" t="n">
         <v>187.4605452976028</v>
@@ -25751,7 +25751,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>22.16023228977369</v>
       </c>
       <c r="R42" t="n">
         <v>138.9899725937864</v>
@@ -25760,7 +25760,7 @@
         <v>203.4146524730248</v>
       </c>
       <c r="T42" t="n">
-        <v>229.0953873507019</v>
+        <v>160.5005015421129</v>
       </c>
       <c r="U42" t="n">
         <v>249.6332338908131</v>
@@ -25769,13 +25769,13 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W42" t="n">
-        <v>205.1303406999971</v>
+        <v>222.8308813427259</v>
       </c>
       <c r="X42" t="n">
-        <v>230.033063710963</v>
+        <v>161.438177902374</v>
       </c>
       <c r="Y42" t="n">
-        <v>164.7773503506593</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="43">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>291.4734426842652</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C44" t="n">
         <v>333.5971194742085</v>
@@ -25876,7 +25876,7 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F44" t="n">
-        <v>326.0635326605711</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
         <v>421.7169243770377</v>
@@ -25888,7 +25888,7 @@
         <v>235.4098608666279</v>
       </c>
       <c r="J44" t="n">
-        <v>61.82075743261788</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,16 +25909,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>3.253746131851827</v>
+        <v>0.4326473668679967</v>
       </c>
       <c r="R44" t="n">
-        <v>180.5340748210476</v>
+        <v>111.9391890124586</v>
       </c>
       <c r="S44" t="n">
         <v>224.7019901645579</v>
       </c>
       <c r="T44" t="n">
-        <v>144.231154973137</v>
+        <v>217.314039885935</v>
       </c>
       <c r="U44" t="n">
         <v>248.751741760962</v>
@@ -25933,7 +25933,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y44" t="n">
-        <v>377.9289763951821</v>
+        <v>309.3340905865931</v>
       </c>
     </row>
     <row r="45">
@@ -25964,7 +25964,7 @@
         <v>135.3544947301804</v>
       </c>
       <c r="I45" t="n">
-        <v>66.19851921405237</v>
+        <v>108.4096919554711</v>
       </c>
       <c r="J45" t="n">
         <v>58.02076676719412</v>
@@ -25988,7 +25988,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>22.16023228977369</v>
       </c>
       <c r="R45" t="n">
         <v>138.9899725937864</v>
@@ -26000,19 +26000,19 @@
         <v>229.0953873507019</v>
       </c>
       <c r="U45" t="n">
-        <v>176.5503489780151</v>
+        <v>249.6332338908131</v>
       </c>
       <c r="V45" t="n">
-        <v>176.2170402673744</v>
+        <v>180.7050393715834</v>
       </c>
       <c r="W45" t="n">
-        <v>283.2492567629311</v>
+        <v>214.6543709543421</v>
       </c>
       <c r="X45" t="n">
-        <v>156.950178798165</v>
+        <v>161.438177902374</v>
       </c>
       <c r="Y45" t="n">
-        <v>242.8962664135933</v>
+        <v>182.4778909933881</v>
       </c>
     </row>
     <row r="46">
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>387622.1699199761</v>
+        <v>386121.5471158581</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>464596.2725967953</v>
+        <v>473664.8112801639</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>464596.2725967952</v>
+        <v>473664.8112801638</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>494031.0735483685</v>
+        <v>495722.5103227504</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>497612.4355718374</v>
+        <v>495722.5103227504</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>504348.6143093414</v>
+        <v>504348.6143093413</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>504348.6143093412</v>
+        <v>504348.6143093413</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>504348.6143093414</v>
+        <v>504348.6143093412</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>504348.6143093413</v>
+        <v>504348.6143093412</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>504348.6143093413</v>
+        <v>504348.6143093412</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>504348.6143093412</v>
+        <v>497575.621997259</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>500767.2522858726</v>
+        <v>497575.6219972589</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>94888.48091120482</v>
+        <v>94503.32858608061</v>
       </c>
       <c r="C2" t="n">
         <v>94888.48091120482</v>
@@ -26322,16 +26322,16 @@
         <v>94888.48091120482</v>
       </c>
       <c r="E2" t="n">
-        <v>114653.1589205134</v>
+        <v>116778.9654061777</v>
       </c>
       <c r="F2" t="n">
-        <v>114653.1589205134</v>
+        <v>116778.9654061776</v>
       </c>
       <c r="G2" t="n">
-        <v>121826.0340159437</v>
+        <v>122197.1491898788</v>
       </c>
       <c r="H2" t="n">
-        <v>122660.5555435977</v>
+        <v>122197.1491898788</v>
       </c>
       <c r="I2" t="n">
         <v>124307.0279428853</v>
@@ -26352,10 +26352,10 @@
         <v>124307.0279428853</v>
       </c>
       <c r="O2" t="n">
-        <v>124307.0279428853</v>
+        <v>122728.799365593</v>
       </c>
       <c r="P2" t="n">
-        <v>123472.5064152313</v>
+        <v>122728.799365593</v>
       </c>
     </row>
     <row r="3">
@@ -26365,28 +26365,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>300331.6078316385</v>
+        <v>297965.4180442812</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2236.019182749852</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>112880.3564656352</v>
+        <v>116710.652983825</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>25025.82962312179</v>
+        <v>21086.55095956418</v>
       </c>
       <c r="H3" t="n">
-        <v>1358.766528587063</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6023.173321359838</v>
+        <v>7770.409386382858</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>7991.73586158187</v>
+        <v>11188.63989844652</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>8068.738678695327</v>
+        <v>3413.534877988306</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8068.246275156869</v>
+        <v>8108.232771535897</v>
       </c>
       <c r="C4" t="n">
         <v>8068.246275156869</v>
       </c>
       <c r="D4" t="n">
-        <v>8068.246275156869</v>
+        <v>8068.246275156868</v>
       </c>
       <c r="E4" t="n">
-        <v>6006.874343675992</v>
+        <v>6581.482665679336</v>
       </c>
       <c r="F4" t="n">
-        <v>6006.874343675992</v>
+        <v>6581.482665679336</v>
       </c>
       <c r="G4" t="n">
-        <v>6774.470083496166</v>
+        <v>6983.625980706002</v>
       </c>
       <c r="H4" t="n">
-        <v>7021.395135041589</v>
+        <v>6983.625980706001</v>
       </c>
       <c r="I4" t="n">
-        <v>7177.107977827259</v>
+        <v>7177.107977827257</v>
       </c>
       <c r="J4" t="n">
-        <v>7177.107977827259</v>
+        <v>7177.107977827257</v>
       </c>
       <c r="K4" t="n">
-        <v>7177.107977827262</v>
+        <v>7177.107977827256</v>
       </c>
       <c r="L4" t="n">
-        <v>7177.107977827261</v>
+        <v>7177.107977827256</v>
       </c>
       <c r="M4" t="n">
-        <v>7177.107977827258</v>
+        <v>7177.10797782726</v>
       </c>
       <c r="N4" t="n">
-        <v>7177.107977827259</v>
+        <v>7177.10797782726</v>
       </c>
       <c r="O4" t="n">
-        <v>7177.107977827259</v>
+        <v>6710.12880487064</v>
       </c>
       <c r="P4" t="n">
-        <v>6930.182926281836</v>
+        <v>6710.12880487064</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>40368.52827033812</v>
+      </c>
+      <c r="C5" t="n">
         <v>40422.05903150924</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>40422.05903150925</v>
       </c>
-      <c r="D5" t="n">
-        <v>40422.05903150924</v>
-      </c>
       <c r="E5" t="n">
-        <v>11547.40135605111</v>
+        <v>12327.37184384973</v>
       </c>
       <c r="F5" t="n">
-        <v>11547.40135605111</v>
+        <v>12327.37184384973</v>
       </c>
       <c r="G5" t="n">
-        <v>14029.98121058645</v>
+        <v>14177.89995939219</v>
       </c>
       <c r="H5" t="n">
-        <v>14336.17190451473</v>
+        <v>14177.89995939219</v>
       </c>
       <c r="I5" t="n">
-        <v>14908.05247287483</v>
+        <v>14908.05247287482</v>
       </c>
       <c r="J5" t="n">
         <v>14908.05247287482</v>
       </c>
       <c r="K5" t="n">
+        <v>14908.05247287482</v>
+      </c>
+      <c r="L5" t="n">
+        <v>14908.05247287482</v>
+      </c>
+      <c r="M5" t="n">
         <v>14908.05247287483</v>
-      </c>
-      <c r="L5" t="n">
-        <v>14908.05247287483</v>
-      </c>
-      <c r="M5" t="n">
-        <v>14908.05247287482</v>
       </c>
       <c r="N5" t="n">
         <v>14908.05247287483</v>
       </c>
       <c r="O5" t="n">
-        <v>14908.05247287483</v>
+        <v>14328.99143341065</v>
       </c>
       <c r="P5" t="n">
-        <v>14601.86177894655</v>
+        <v>14328.99143341065</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-253933.4322270998</v>
+        <v>-269008.749068356</v>
       </c>
       <c r="C6" t="n">
-        <v>46398.17560453871</v>
+        <v>27119.76873387348</v>
       </c>
       <c r="D6" t="n">
-        <v>46398.17560453872</v>
+        <v>29355.78791662333</v>
       </c>
       <c r="E6" t="n">
-        <v>-15781.47324484886</v>
+        <v>-34319.3237397366</v>
       </c>
       <c r="F6" t="n">
-        <v>97098.88322078632</v>
+        <v>82391.3292440884</v>
       </c>
       <c r="G6" t="n">
-        <v>75995.75309873927</v>
+        <v>64857.3037650635</v>
       </c>
       <c r="H6" t="n">
-        <v>99944.2219754543</v>
+        <v>85943.85472462767</v>
       </c>
       <c r="I6" t="n">
-        <v>96198.69417082336</v>
+        <v>79510.39520586219</v>
       </c>
       <c r="J6" t="n">
-        <v>102221.8674921832</v>
+        <v>87280.80459224504</v>
       </c>
       <c r="K6" t="n">
-        <v>102221.8674921832</v>
+        <v>87280.804592245</v>
       </c>
       <c r="L6" t="n">
-        <v>102221.8674921832</v>
+        <v>87280.80459224503</v>
       </c>
       <c r="M6" t="n">
-        <v>94230.13163060132</v>
+        <v>76092.16469379851</v>
       </c>
       <c r="N6" t="n">
-        <v>102221.8674921832</v>
+        <v>87280.80459224498</v>
       </c>
       <c r="O6" t="n">
-        <v>94153.1288134879</v>
+        <v>83222.35073672149</v>
       </c>
       <c r="P6" t="n">
-        <v>101940.4617100029</v>
+        <v>86635.88561470977</v>
       </c>
     </row>
   </sheetData>
@@ -26737,28 +26737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>309.2168931347763</v>
+      </c>
+      <c r="C3" t="n">
         <v>311.6724326380388</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>311.6724326380389</v>
-      </c>
-      <c r="D3" t="n">
-        <v>311.6724326380388</v>
       </c>
       <c r="E3" t="n">
         <v>440.2570200305261</v>
       </c>
       <c r="F3" t="n">
-        <v>440.2570200305261</v>
+        <v>440.257020030526</v>
       </c>
       <c r="G3" t="n">
-        <v>460.6253208824141</v>
+        <v>459.0205167718436</v>
       </c>
       <c r="H3" t="n">
-        <v>460.6253208824141</v>
+        <v>459.0205167718436</v>
       </c>
       <c r="I3" t="n">
-        <v>465.9826778095614</v>
+        <v>465.9826778095613</v>
       </c>
       <c r="J3" t="n">
         <v>465.9826778095613</v>
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>32.06905130568487</v>
+        <v>44.89751327605699</v>
       </c>
       <c r="F4" t="n">
-        <v>32.06905130568487</v>
+        <v>44.89751327605691</v>
       </c>
       <c r="G4" t="n">
-        <v>65.59784893667481</v>
+        <v>68.60612983167768</v>
       </c>
       <c r="H4" t="n">
-        <v>70.63388008681088</v>
+        <v>68.60612983167768</v>
       </c>
       <c r="I4" t="n">
-        <v>78.11891606293409</v>
+        <v>78.11891606293396</v>
       </c>
       <c r="J4" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293396</v>
       </c>
       <c r="K4" t="n">
-        <v>78.11891606293409</v>
+        <v>78.11891606293396</v>
       </c>
       <c r="L4" t="n">
-        <v>78.11891606293409</v>
+        <v>78.11891606293396</v>
       </c>
       <c r="M4" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293403</v>
       </c>
       <c r="N4" t="n">
-        <v>78.11891606293402</v>
+        <v>78.11891606293403</v>
       </c>
       <c r="O4" t="n">
-        <v>78.11891606293403</v>
+        <v>68.594885808589</v>
       </c>
       <c r="P4" t="n">
-        <v>73.08288491279797</v>
+        <v>68.594885808589</v>
       </c>
     </row>
   </sheetData>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>311.6724326380388</v>
+        <v>309.2168931347763</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.455539503262514</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>128.5845873924872</v>
+        <v>128.5845873924873</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>20.36830085188808</v>
+        <v>18.76349674131768</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5.357356927147266</v>
+        <v>6.962161037717692</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>32.06905130568487</v>
+        <v>44.89751327605699</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>33.52879763098994</v>
+        <v>23.70861655562076</v>
       </c>
       <c r="H4" t="n">
-        <v>5.036031150136068</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>7.485035976123214</v>
+        <v>9.512786231256285</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>32.06905130568478</v>
+        <v>44.89751327605706</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>33.5287976309898</v>
+        <v>14.18458630127573</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,16 +27266,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>32.06905130568487</v>
+        <v>44.89751327605699</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>33.52879763098994</v>
+        <v>23.70861655562076</v>
       </c>
       <c r="P4" t="n">
-        <v>5.036031150136068</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.252954503067492</v>
+        <v>1.243082987476487</v>
       </c>
       <c r="H2" t="n">
-        <v>12.83182030453995</v>
+        <v>12.73072364549357</v>
       </c>
       <c r="I2" t="n">
-        <v>48.30452847950952</v>
+        <v>47.9239568746873</v>
       </c>
       <c r="J2" t="n">
-        <v>106.3429472547246</v>
+        <v>105.5051147083326</v>
       </c>
       <c r="K2" t="n">
-        <v>159.3805113695716</v>
+        <v>158.1248175682123</v>
       </c>
       <c r="L2" t="n">
-        <v>197.7256177428234</v>
+        <v>196.1678185461958</v>
       </c>
       <c r="M2" t="n">
-        <v>220.0078473867499</v>
+        <v>218.2744956247308</v>
       </c>
       <c r="N2" t="n">
-        <v>223.5678043685904</v>
+        <v>221.8064051628984</v>
       </c>
       <c r="O2" t="n">
-        <v>211.108738028713</v>
+        <v>209.4454987061791</v>
       </c>
       <c r="P2" t="n">
-        <v>180.1764237342343</v>
+        <v>178.7568874528532</v>
       </c>
       <c r="Q2" t="n">
-        <v>135.3049905931297</v>
+        <v>134.2389779638515</v>
       </c>
       <c r="R2" t="n">
-        <v>78.70590330331339</v>
+        <v>78.08581171206993</v>
       </c>
       <c r="S2" t="n">
-        <v>28.5517007386505</v>
+        <v>28.32675357712047</v>
       </c>
       <c r="T2" t="n">
-        <v>5.484808337177948</v>
+        <v>5.441595777678323</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1002363602453993</v>
+        <v>0.09944663899811891</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6703897607686118</v>
+        <v>0.6651080342898962</v>
       </c>
       <c r="H3" t="n">
-        <v>6.474553742160015</v>
+        <v>6.423543383799788</v>
       </c>
       <c r="I3" t="n">
-        <v>23.08140185102458</v>
+        <v>22.89955293498108</v>
       </c>
       <c r="J3" t="n">
-        <v>63.33713086279241</v>
+        <v>62.83812353788884</v>
       </c>
       <c r="K3" t="n">
-        <v>108.2532448342894</v>
+        <v>107.4003618353119</v>
       </c>
       <c r="L3" t="n">
-        <v>145.559846959869</v>
+        <v>144.4130405154444</v>
       </c>
       <c r="M3" t="n">
-        <v>169.8614757877311</v>
+        <v>168.5232067584531</v>
       </c>
       <c r="N3" t="n">
-        <v>174.3572036132365</v>
+        <v>172.9835145848972</v>
       </c>
       <c r="O3" t="n">
-        <v>159.5027778614688</v>
+        <v>158.2461207724737</v>
       </c>
       <c r="P3" t="n">
-        <v>128.015041247122</v>
+        <v>127.0064631443575</v>
       </c>
       <c r="Q3" t="n">
-        <v>85.57466490091964</v>
+        <v>84.90045714900501</v>
       </c>
       <c r="R3" t="n">
-        <v>41.62297128701962</v>
+        <v>41.29504093599901</v>
       </c>
       <c r="S3" t="n">
-        <v>12.45219577568013</v>
+        <v>12.35409002288469</v>
       </c>
       <c r="T3" t="n">
-        <v>2.70214118485243</v>
+        <v>2.680852120668484</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0441045895242508</v>
+        <v>0.04375710751907214</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5620322555767913</v>
+        <v>0.5576042335217276</v>
       </c>
       <c r="H4" t="n">
-        <v>4.996977690491838</v>
+        <v>4.957608548947728</v>
       </c>
       <c r="I4" t="n">
-        <v>16.9018427404366</v>
+        <v>16.76868004081705</v>
       </c>
       <c r="J4" t="n">
-        <v>39.73568046927914</v>
+        <v>39.42261930998615</v>
       </c>
       <c r="K4" t="n">
-        <v>65.29792932973992</v>
+        <v>64.78347367643343</v>
       </c>
       <c r="L4" t="n">
-        <v>83.55886825184405</v>
+        <v>82.90054213649397</v>
       </c>
       <c r="M4" t="n">
-        <v>88.10111075373281</v>
+        <v>87.40699816922863</v>
       </c>
       <c r="N4" t="n">
-        <v>86.00626325567394</v>
+        <v>85.32865511701135</v>
       </c>
       <c r="O4" t="n">
-        <v>79.44070463370866</v>
+        <v>78.8148238435984</v>
       </c>
       <c r="P4" t="n">
-        <v>67.97524661994207</v>
+        <v>67.43969747975511</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.06253732834386</v>
+        <v>46.69175086335122</v>
       </c>
       <c r="R4" t="n">
-        <v>25.27101396438917</v>
+        <v>25.07191399089513</v>
       </c>
       <c r="S4" t="n">
-        <v>9.794689399460985</v>
+        <v>9.717521051465015</v>
       </c>
       <c r="T4" t="n">
-        <v>2.40141054655538</v>
+        <v>2.382490815956472</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03065630484964319</v>
+        <v>0.03041477637391245</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,7 +31284,7 @@
         <v>12.83182030453995</v>
       </c>
       <c r="I5" t="n">
-        <v>48.30452847950953</v>
+        <v>48.30452847950952</v>
       </c>
       <c r="J5" t="n">
         <v>106.3429472547246</v>
@@ -31311,7 +31311,7 @@
         <v>135.3049905931297</v>
       </c>
       <c r="R5" t="n">
-        <v>78.70590330331341</v>
+        <v>78.70590330331339</v>
       </c>
       <c r="S5" t="n">
         <v>28.5517007386505</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6703897607686119</v>
+        <v>0.6703897607686118</v>
       </c>
       <c r="H6" t="n">
         <v>6.474553742160015</v>
@@ -31387,7 +31387,7 @@
         <v>128.015041247122</v>
       </c>
       <c r="Q6" t="n">
-        <v>85.57466490091966</v>
+        <v>85.57466490091964</v>
       </c>
       <c r="R6" t="n">
         <v>41.62297128701962</v>
@@ -31439,7 +31439,7 @@
         <v>0.5620322555767913</v>
       </c>
       <c r="H7" t="n">
-        <v>4.996977690491839</v>
+        <v>4.996977690491838</v>
       </c>
       <c r="I7" t="n">
         <v>16.9018427404366</v>
@@ -31451,16 +31451,16 @@
         <v>65.29792932973992</v>
       </c>
       <c r="L7" t="n">
-        <v>83.55886825184406</v>
+        <v>83.55886825184405</v>
       </c>
       <c r="M7" t="n">
-        <v>88.10111075373283</v>
+        <v>88.10111075373281</v>
       </c>
       <c r="N7" t="n">
         <v>86.00626325567394</v>
       </c>
       <c r="O7" t="n">
-        <v>79.44070463370868</v>
+        <v>79.44070463370866</v>
       </c>
       <c r="P7" t="n">
         <v>67.97524661994207</v>
@@ -31478,7 +31478,7 @@
         <v>2.40141054655538</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0306563048496432</v>
+        <v>0.03065630484964319</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,7 +31521,7 @@
         <v>12.83182030453995</v>
       </c>
       <c r="I8" t="n">
-        <v>48.30452847950952</v>
+        <v>48.30452847950953</v>
       </c>
       <c r="J8" t="n">
         <v>106.3429472547246</v>
@@ -31548,13 +31548,13 @@
         <v>135.3049905931297</v>
       </c>
       <c r="R8" t="n">
-        <v>78.70590330331339</v>
+        <v>78.70590330331341</v>
       </c>
       <c r="S8" t="n">
         <v>28.5517007386505</v>
       </c>
       <c r="T8" t="n">
-        <v>5.484808337177948</v>
+        <v>5.484808337177949</v>
       </c>
       <c r="U8" t="n">
         <v>0.1002363602453993</v>
@@ -31594,10 +31594,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6703897607686118</v>
+        <v>0.6703897607686119</v>
       </c>
       <c r="H9" t="n">
-        <v>6.474553742160015</v>
+        <v>6.474553742160016</v>
       </c>
       <c r="I9" t="n">
         <v>23.08140185102458</v>
@@ -31612,7 +31612,7 @@
         <v>145.559846959869</v>
       </c>
       <c r="M9" t="n">
-        <v>169.8614757877311</v>
+        <v>169.8614757877312</v>
       </c>
       <c r="N9" t="n">
         <v>174.3572036132365</v>
@@ -31624,7 +31624,7 @@
         <v>128.015041247122</v>
       </c>
       <c r="Q9" t="n">
-        <v>85.57466490091964</v>
+        <v>85.57466490091966</v>
       </c>
       <c r="R9" t="n">
         <v>41.62297128701962</v>
@@ -31676,31 +31676,31 @@
         <v>0.5620322555767913</v>
       </c>
       <c r="H10" t="n">
-        <v>4.996977690491838</v>
+        <v>4.996977690491839</v>
       </c>
       <c r="I10" t="n">
         <v>16.9018427404366</v>
       </c>
       <c r="J10" t="n">
-        <v>39.73568046927914</v>
+        <v>39.73568046927915</v>
       </c>
       <c r="K10" t="n">
-        <v>65.29792932973992</v>
+        <v>65.29792932973993</v>
       </c>
       <c r="L10" t="n">
-        <v>83.55886825184405</v>
+        <v>83.55886825184406</v>
       </c>
       <c r="M10" t="n">
-        <v>88.10111075373281</v>
+        <v>88.10111075373283</v>
       </c>
       <c r="N10" t="n">
-        <v>86.00626325567394</v>
+        <v>86.00626325567396</v>
       </c>
       <c r="O10" t="n">
-        <v>79.44070463370866</v>
+        <v>79.44070463370868</v>
       </c>
       <c r="P10" t="n">
-        <v>67.97524661994207</v>
+        <v>67.97524661994208</v>
       </c>
       <c r="Q10" t="n">
         <v>47.06253732834386</v>
@@ -31709,13 +31709,13 @@
         <v>25.27101396438917</v>
       </c>
       <c r="S10" t="n">
-        <v>9.794689399460985</v>
+        <v>9.794689399460987</v>
       </c>
       <c r="T10" t="n">
         <v>2.40141054655538</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03065630484964319</v>
+        <v>0.0306563048496432</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31852,7 +31852,7 @@
         <v>239.9400759166367</v>
       </c>
       <c r="N12" t="n">
-        <v>224.1563052275598</v>
+        <v>236.984767197932</v>
       </c>
       <c r="O12" t="n">
         <v>225.307760052792</v>
@@ -31992,10 +31992,10 @@
         <v>1.7698774674594</v>
       </c>
       <c r="H14" t="n">
-        <v>18.12575761361859</v>
+        <v>18.12575761361858</v>
       </c>
       <c r="I14" t="n">
-        <v>68.23320106422858</v>
+        <v>68.23320106422857</v>
       </c>
       <c r="J14" t="n">
         <v>150.2161377037824</v>
@@ -32004,13 +32004,13 @@
         <v>225.1350509013388</v>
       </c>
       <c r="L14" t="n">
-        <v>279.2999384460995</v>
+        <v>279.2999384460994</v>
       </c>
       <c r="M14" t="n">
-        <v>310.7749968580306</v>
+        <v>310.7749968580305</v>
       </c>
       <c r="N14" t="n">
-        <v>315.8036612124496</v>
+        <v>315.8036612124495</v>
       </c>
       <c r="O14" t="n">
         <v>298.2044421454002</v>
@@ -32019,7 +32019,7 @@
         <v>254.5105921674962</v>
       </c>
       <c r="Q14" t="n">
-        <v>191.1268553641064</v>
+        <v>191.1268553641063</v>
       </c>
       <c r="R14" t="n">
         <v>111.1770654652966</v>
@@ -32028,10 +32028,10 @@
         <v>40.33108278973111</v>
       </c>
       <c r="T14" t="n">
-        <v>7.747638613803527</v>
+        <v>7.747638613803525</v>
       </c>
       <c r="U14" t="n">
-        <v>0.141590197396752</v>
+        <v>0.1415901973967519</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9469679298769806</v>
+        <v>0.9469679298769804</v>
       </c>
       <c r="H15" t="n">
-        <v>9.145716585917157</v>
+        <v>9.145716585917153</v>
       </c>
       <c r="I15" t="n">
-        <v>32.60393969093991</v>
+        <v>32.6039396909399</v>
       </c>
       <c r="J15" t="n">
-        <v>89.46770253280721</v>
+        <v>89.46770253280718</v>
       </c>
       <c r="K15" t="n">
         <v>152.9145538345649</v>
       </c>
       <c r="L15" t="n">
-        <v>205.6124884585962</v>
+        <v>205.6124884585961</v>
       </c>
       <c r="M15" t="n">
-        <v>239.9400759166367</v>
+        <v>239.9400759166366</v>
       </c>
       <c r="N15" t="n">
-        <v>224.1563052275598</v>
+        <v>236.9847671979319</v>
       </c>
       <c r="O15" t="n">
-        <v>225.307760052792</v>
+        <v>225.3077600527919</v>
       </c>
       <c r="P15" t="n">
-        <v>180.8293409253684</v>
+        <v>180.8293409253683</v>
       </c>
       <c r="Q15" t="n">
         <v>120.8796255751739</v>
       </c>
       <c r="R15" t="n">
-        <v>58.79507901464273</v>
+        <v>58.79507901464272</v>
       </c>
       <c r="S15" t="n">
-        <v>17.58951396065356</v>
+        <v>17.58951396065355</v>
       </c>
       <c r="T15" t="n">
-        <v>3.81694529630239</v>
+        <v>3.816945296302389</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06230052170243296</v>
+        <v>0.06230052170243294</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7939061016943911</v>
+        <v>0.7939061016943909</v>
       </c>
       <c r="H16" t="n">
-        <v>7.058546976882865</v>
+        <v>7.058546976882863</v>
       </c>
       <c r="I16" t="n">
-        <v>23.87492167640952</v>
+        <v>23.87492167640951</v>
       </c>
       <c r="J16" t="n">
-        <v>56.12916138979345</v>
+        <v>56.12916138979344</v>
       </c>
       <c r="K16" t="n">
-        <v>92.23745436049379</v>
+        <v>92.23745436049377</v>
       </c>
       <c r="L16" t="n">
         <v>118.0321853373643</v>
@@ -32174,22 +32174,22 @@
         <v>112.2150188104036</v>
       </c>
       <c r="P16" t="n">
-        <v>96.01933433583797</v>
+        <v>96.01933433583794</v>
       </c>
       <c r="Q16" t="n">
-        <v>66.47881002460943</v>
+        <v>66.47881002460942</v>
       </c>
       <c r="R16" t="n">
-        <v>35.69690526345871</v>
+        <v>35.6969052634587</v>
       </c>
       <c r="S16" t="n">
-        <v>13.83561815407407</v>
+        <v>13.83561815407406</v>
       </c>
       <c r="T16" t="n">
-        <v>3.392144252694216</v>
+        <v>3.392144252694215</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04330396918333048</v>
+        <v>0.04330396918333047</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.851760083949402</v>
+        <v>1.845308610138063</v>
       </c>
       <c r="H17" t="n">
-        <v>18.96433795974682</v>
+        <v>18.89826680357645</v>
       </c>
       <c r="I17" t="n">
-        <v>71.38998063645938</v>
+        <v>71.14126019234776</v>
       </c>
       <c r="J17" t="n">
-        <v>157.1658224251007</v>
+        <v>156.6182616497056</v>
       </c>
       <c r="K17" t="n">
-        <v>235.5508267786789</v>
+        <v>234.7301751168499</v>
       </c>
       <c r="L17" t="n">
-        <v>292.2216294478455</v>
+        <v>291.2035384943627</v>
       </c>
       <c r="M17" t="n">
-        <v>325.1528678407807</v>
+        <v>324.0200454899054</v>
       </c>
       <c r="N17" t="n">
-        <v>330.4141811793019</v>
+        <v>329.2630285784603</v>
       </c>
       <c r="O17" t="n">
-        <v>312.0007418445301</v>
+        <v>310.9137410863999</v>
       </c>
       <c r="P17" t="n">
-        <v>266.2854147720291</v>
+        <v>265.3576847736164</v>
       </c>
       <c r="Q17" t="n">
-        <v>199.9692567655911</v>
+        <v>199.2725701730469</v>
       </c>
       <c r="R17" t="n">
-        <v>116.3206243733867</v>
+        <v>115.9153669815852</v>
       </c>
       <c r="S17" t="n">
-        <v>42.19698291299704</v>
+        <v>42.04996995352116</v>
       </c>
       <c r="T17" t="n">
-        <v>8.106079767488511</v>
+        <v>8.077838440879377</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1481408067159521</v>
+        <v>0.147624688811045</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9907789920867021</v>
+        <v>0.9873271492828335</v>
       </c>
       <c r="H18" t="n">
-        <v>9.568839213047887</v>
+        <v>9.535501678599999</v>
       </c>
       <c r="I18" t="n">
-        <v>34.11234687666935</v>
+        <v>33.99350053451862</v>
       </c>
       <c r="J18" t="n">
-        <v>93.60688714271777</v>
+        <v>93.2807636960593</v>
       </c>
       <c r="K18" t="n">
-        <v>159.9890796125268</v>
+        <v>159.4316826980091</v>
       </c>
       <c r="L18" t="n">
-        <v>215.1250614177727</v>
+        <v>214.3755724791521</v>
       </c>
       <c r="M18" t="n">
-        <v>251.0407998809156</v>
+        <v>250.1661816406547</v>
       </c>
       <c r="N18" t="n">
-        <v>257.6851028585498</v>
+        <v>256.787336075977</v>
       </c>
       <c r="O18" t="n">
-        <v>235.7315262444181</v>
+        <v>234.9102450313415</v>
       </c>
       <c r="P18" t="n">
-        <v>189.1953322696089</v>
+        <v>188.5361816906843</v>
       </c>
       <c r="Q18" t="n">
-        <v>126.4720692354885</v>
+        <v>126.031444529507</v>
       </c>
       <c r="R18" t="n">
-        <v>61.51520794727789</v>
+        <v>61.30089090020963</v>
       </c>
       <c r="S18" t="n">
-        <v>18.40328522582097</v>
+        <v>18.33916875970525</v>
       </c>
       <c r="T18" t="n">
-        <v>3.993534621612626</v>
+        <v>3.979621272767209</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06518282842675674</v>
+        <v>0.0649557335054496</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8306358245420581</v>
+        <v>0.8277419154902097</v>
       </c>
       <c r="H19" t="n">
-        <v>7.385107603655758</v>
+        <v>7.359378121358415</v>
       </c>
       <c r="I19" t="n">
-        <v>24.97948461441026</v>
+        <v>24.89245687674195</v>
       </c>
       <c r="J19" t="n">
-        <v>58.7259527951235</v>
+        <v>58.52135342515783</v>
       </c>
       <c r="K19" t="n">
-        <v>96.50478034225</v>
+        <v>96.16856072695344</v>
       </c>
       <c r="L19" t="n">
-        <v>123.4928934050984</v>
+        <v>123.0626480538808</v>
       </c>
       <c r="M19" t="n">
-        <v>130.2059411143519</v>
+        <v>129.7523077163426</v>
       </c>
       <c r="N19" t="n">
-        <v>127.1099348592407</v>
+        <v>126.6670878495156</v>
       </c>
       <c r="O19" t="n">
-        <v>117.4065981816357</v>
+        <v>116.997557291289</v>
       </c>
       <c r="P19" t="n">
-        <v>100.4616273609776</v>
+        <v>100.1116222152886</v>
       </c>
       <c r="Q19" t="n">
-        <v>69.55442345324452</v>
+        <v>69.31209803254839</v>
       </c>
       <c r="R19" t="n">
-        <v>37.34840716531835</v>
+        <v>37.2182864910416</v>
       </c>
       <c r="S19" t="n">
-        <v>14.4757170513375</v>
+        <v>14.42528410904301</v>
       </c>
       <c r="T19" t="n">
-        <v>3.549080341225157</v>
+        <v>3.536715457094532</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04530740861138504</v>
+        <v>0.04514955902673876</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.851760083949402</v>
+        <v>1.845308610138063</v>
       </c>
       <c r="H20" t="n">
-        <v>18.96433795974682</v>
+        <v>18.89826680357645</v>
       </c>
       <c r="I20" t="n">
-        <v>71.38998063645938</v>
+        <v>71.14126019234776</v>
       </c>
       <c r="J20" t="n">
-        <v>157.1658224251007</v>
+        <v>156.6182616497056</v>
       </c>
       <c r="K20" t="n">
-        <v>235.5508267786789</v>
+        <v>234.7301751168499</v>
       </c>
       <c r="L20" t="n">
-        <v>292.2216294478455</v>
+        <v>291.2035384943627</v>
       </c>
       <c r="M20" t="n">
-        <v>325.1528678407807</v>
+        <v>324.0200454899054</v>
       </c>
       <c r="N20" t="n">
-        <v>330.4141811793019</v>
+        <v>329.2630285784603</v>
       </c>
       <c r="O20" t="n">
-        <v>312.0007418445301</v>
+        <v>310.9137410863999</v>
       </c>
       <c r="P20" t="n">
-        <v>266.2854147720291</v>
+        <v>265.3576847736164</v>
       </c>
       <c r="Q20" t="n">
-        <v>199.9692567655911</v>
+        <v>199.2725701730469</v>
       </c>
       <c r="R20" t="n">
-        <v>116.3206243733867</v>
+        <v>115.9153669815852</v>
       </c>
       <c r="S20" t="n">
-        <v>42.19698291299704</v>
+        <v>42.04996995352116</v>
       </c>
       <c r="T20" t="n">
-        <v>8.106079767488511</v>
+        <v>8.077838440879377</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1481408067159521</v>
+        <v>0.147624688811045</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9907789920867021</v>
+        <v>0.9873271492828335</v>
       </c>
       <c r="H21" t="n">
-        <v>9.568839213047887</v>
+        <v>9.535501678599999</v>
       </c>
       <c r="I21" t="n">
-        <v>34.11234687666935</v>
+        <v>33.99350053451862</v>
       </c>
       <c r="J21" t="n">
-        <v>93.60688714271777</v>
+        <v>93.2807636960593</v>
       </c>
       <c r="K21" t="n">
-        <v>159.9890796125268</v>
+        <v>159.4316826980091</v>
       </c>
       <c r="L21" t="n">
-        <v>215.1250614177727</v>
+        <v>214.3755724791521</v>
       </c>
       <c r="M21" t="n">
-        <v>251.0407998809156</v>
+        <v>250.1661816406547</v>
       </c>
       <c r="N21" t="n">
-        <v>257.6851028585498</v>
+        <v>256.787336075977</v>
       </c>
       <c r="O21" t="n">
-        <v>235.7315262444181</v>
+        <v>234.9102450313415</v>
       </c>
       <c r="P21" t="n">
-        <v>189.1953322696089</v>
+        <v>188.5361816906843</v>
       </c>
       <c r="Q21" t="n">
-        <v>126.4720692354885</v>
+        <v>126.031444529507</v>
       </c>
       <c r="R21" t="n">
-        <v>61.51520794727789</v>
+        <v>61.30089090020963</v>
       </c>
       <c r="S21" t="n">
-        <v>18.40328522582097</v>
+        <v>18.33916875970525</v>
       </c>
       <c r="T21" t="n">
-        <v>3.993534621612626</v>
+        <v>3.979621272767209</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06518282842675674</v>
+        <v>0.0649557335054496</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8306358245420581</v>
+        <v>0.8277419154902097</v>
       </c>
       <c r="H22" t="n">
-        <v>7.385107603655758</v>
+        <v>7.359378121358415</v>
       </c>
       <c r="I22" t="n">
-        <v>24.97948461441026</v>
+        <v>24.89245687674195</v>
       </c>
       <c r="J22" t="n">
-        <v>58.7259527951235</v>
+        <v>58.52135342515783</v>
       </c>
       <c r="K22" t="n">
-        <v>96.50478034225</v>
+        <v>96.16856072695344</v>
       </c>
       <c r="L22" t="n">
-        <v>123.4928934050984</v>
+        <v>123.0626480538808</v>
       </c>
       <c r="M22" t="n">
-        <v>130.2059411143519</v>
+        <v>129.7523077163426</v>
       </c>
       <c r="N22" t="n">
-        <v>127.1099348592407</v>
+        <v>126.6670878495156</v>
       </c>
       <c r="O22" t="n">
-        <v>117.4065981816357</v>
+        <v>116.997557291289</v>
       </c>
       <c r="P22" t="n">
-        <v>100.4616273609776</v>
+        <v>100.1116222152886</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.55442345324452</v>
+        <v>69.31209803254839</v>
       </c>
       <c r="R22" t="n">
-        <v>37.34840716531835</v>
+        <v>37.2182864910416</v>
       </c>
       <c r="S22" t="n">
-        <v>14.4757170513375</v>
+        <v>14.42528410904301</v>
       </c>
       <c r="T22" t="n">
-        <v>3.549080341225157</v>
+        <v>3.536715457094532</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04530740861138504</v>
+        <v>0.04514955902673876</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32709,7 +32709,7 @@
         <v>72.22029019599243</v>
       </c>
       <c r="J23" t="n">
-        <v>158.9937579929217</v>
+        <v>158.9937579929216</v>
       </c>
       <c r="K23" t="n">
         <v>238.2904283514291</v>
@@ -32718,13 +32718,13 @@
         <v>295.6203474509844</v>
       </c>
       <c r="M23" t="n">
-        <v>328.9345964821232</v>
+        <v>328.9345964821231</v>
       </c>
       <c r="N23" t="n">
-        <v>334.257102143737</v>
+        <v>334.2571021437369</v>
       </c>
       <c r="O23" t="n">
-        <v>315.6295031388372</v>
+        <v>315.6295031388371</v>
       </c>
       <c r="P23" t="n">
         <v>269.3824785823605</v>
@@ -32736,7 +32736,7 @@
         <v>117.6735050651452</v>
       </c>
       <c r="S23" t="n">
-        <v>42.68775988175028</v>
+        <v>42.68775988175027</v>
       </c>
       <c r="T23" t="n">
         <v>8.200358480849665</v>
@@ -32782,13 +32782,13 @@
         <v>1.002302363590377</v>
       </c>
       <c r="H24" t="n">
-        <v>9.680130722043909</v>
+        <v>9.680130722043907</v>
       </c>
       <c r="I24" t="n">
         <v>34.50909453589676</v>
       </c>
       <c r="J24" t="n">
-        <v>94.69559304429966</v>
+        <v>94.69559304429964</v>
       </c>
       <c r="K24" t="n">
         <v>161.8498514048549</v>
@@ -32806,22 +32806,22 @@
         <v>238.4732294635403</v>
       </c>
       <c r="P24" t="n">
-        <v>191.3957908157801</v>
+        <v>191.39579081578</v>
       </c>
       <c r="Q24" t="n">
         <v>127.943017499712</v>
       </c>
       <c r="R24" t="n">
-        <v>62.23066780256749</v>
+        <v>62.23066780256748</v>
       </c>
       <c r="S24" t="n">
-        <v>18.61732679739143</v>
+        <v>18.61732679739142</v>
       </c>
       <c r="T24" t="n">
-        <v>4.039981895348932</v>
+        <v>4.039981895348931</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06594094497305117</v>
+        <v>0.06594094497305115</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8402966321156023</v>
+        <v>0.8402966321156022</v>
       </c>
       <c r="H25" t="n">
-        <v>7.471000965536907</v>
+        <v>7.471000965536906</v>
       </c>
       <c r="I25" t="n">
         <v>25.27001144580376</v>
@@ -32870,7 +32870,7 @@
         <v>59.40897189057308</v>
       </c>
       <c r="K25" t="n">
-        <v>97.62719053124906</v>
+        <v>97.62719053124904</v>
       </c>
       <c r="L25" t="n">
         <v>124.9291920147142</v>
@@ -32891,16 +32891,16 @@
         <v>70.36338434924376</v>
       </c>
       <c r="R25" t="n">
-        <v>37.78279220403426</v>
+        <v>37.78279220403425</v>
       </c>
       <c r="S25" t="n">
-        <v>14.64407857968736</v>
+        <v>14.64407857968735</v>
       </c>
       <c r="T25" t="n">
         <v>3.590358337221209</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04583436175176019</v>
+        <v>0.04583436175176018</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -35415,16 +35415,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>32.06905130568487</v>
+        <v>43.08347233561022</v>
       </c>
       <c r="M11" t="n">
-        <v>32.06905130568487</v>
+        <v>44.89751327605699</v>
       </c>
       <c r="N11" t="n">
-        <v>30.77333206101073</v>
+        <v>44.89751327605699</v>
       </c>
       <c r="O11" t="n">
-        <v>32.06905130568487</v>
+        <v>44.89751327605699</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>32.06905130568487</v>
+        <v>44.89751327605699</v>
       </c>
       <c r="M12" t="n">
-        <v>32.06905130568487</v>
+        <v>43.08347233561025</v>
       </c>
       <c r="N12" t="n">
-        <v>32.06905130568487</v>
+        <v>44.89751327605699</v>
       </c>
       <c r="O12" t="n">
-        <v>30.77333206101073</v>
+        <v>44.89751327605699</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35652,16 +35652,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>32.06905130568487</v>
+        <v>43.08347233561017</v>
       </c>
       <c r="M14" t="n">
-        <v>32.06905130568487</v>
+        <v>44.89751327605691</v>
       </c>
       <c r="N14" t="n">
-        <v>32.06905130568487</v>
+        <v>44.89751327605691</v>
       </c>
       <c r="O14" t="n">
-        <v>30.77333206101073</v>
+        <v>44.89751327605691</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>2.976708030530176</v>
+        <v>39.15118175319039</v>
       </c>
       <c r="M15" t="n">
-        <v>32.06905130568487</v>
+        <v>32.06905130568478</v>
       </c>
       <c r="N15" t="n">
-        <v>32.06905130568487</v>
+        <v>44.89751327605691</v>
       </c>
       <c r="O15" t="n">
-        <v>27.79662403048056</v>
+        <v>16.76075255279193</v>
       </c>
       <c r="P15" t="n">
-        <v>32.06905130568487</v>
+        <v>44.89751327605691</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35889,19 +35889,19 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>56.00516333735624</v>
+        <v>54.98707238387345</v>
       </c>
       <c r="M17" t="n">
-        <v>60.76529379260493</v>
+        <v>68.60612983167768</v>
       </c>
       <c r="N17" t="n">
-        <v>65.59784893667481</v>
+        <v>68.60612983167768</v>
       </c>
       <c r="O17" t="n">
-        <v>65.59784893667481</v>
+        <v>68.60612983167768</v>
       </c>
       <c r="P17" t="n">
-        <v>11.77482260453291</v>
+        <v>10.84709260612021</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35965,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>26.59953982127956</v>
       </c>
       <c r="L18" t="n">
-        <v>65.59784893667481</v>
+        <v>68.60612983167768</v>
       </c>
       <c r="M18" t="n">
-        <v>62.94743079781923</v>
+        <v>68.60612983167768</v>
       </c>
       <c r="N18" t="n">
-        <v>65.59784893667481</v>
+        <v>64.70008215410198</v>
       </c>
       <c r="O18" t="n">
-        <v>65.59784893667481</v>
+        <v>43.14067284628988</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36126,19 +36126,19 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>56.00516333735624</v>
+        <v>54.98707238387345</v>
       </c>
       <c r="M20" t="n">
-        <v>70.63388008681088</v>
+        <v>68.60612983167768</v>
       </c>
       <c r="N20" t="n">
-        <v>70.63388008681088</v>
+        <v>68.60612983167768</v>
       </c>
       <c r="O20" t="n">
-        <v>70.63388008681088</v>
+        <v>68.60612983167768</v>
       </c>
       <c r="P20" t="n">
-        <v>11.77482260453291</v>
+        <v>10.84709260612021</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>70.63388008681088</v>
+        <v>11.73979205108608</v>
       </c>
       <c r="M21" t="n">
-        <v>43.16977526996382</v>
+        <v>58.00042061648335</v>
       </c>
       <c r="N21" t="n">
-        <v>68.05957201431816</v>
+        <v>64.70008215410198</v>
       </c>
       <c r="O21" t="n">
-        <v>27.18451874441811</v>
+        <v>68.60612983167768</v>
       </c>
       <c r="P21" t="n">
-        <v>70.63388008681088</v>
+        <v>68.60612983167768</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36360,19 +36360,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.6868284666479383</v>
+        <v>0.6868284666479099</v>
       </c>
       <c r="L23" t="n">
         <v>59.4038813404951</v>
       </c>
       <c r="M23" t="n">
-        <v>78.11891606293409</v>
+        <v>78.11891606293396</v>
       </c>
       <c r="N23" t="n">
-        <v>78.11891606293409</v>
+        <v>78.11891606293396</v>
       </c>
       <c r="O23" t="n">
-        <v>78.11891606293406</v>
+        <v>78.11891606293396</v>
       </c>
       <c r="P23" t="n">
         <v>14.87188641486432</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>29.01770852812535</v>
       </c>
       <c r="L24" t="n">
-        <v>78.11891606293409</v>
+        <v>16.01866573034167</v>
       </c>
       <c r="M24" t="n">
-        <v>78.11891606293409</v>
+        <v>78.11891606293396</v>
       </c>
       <c r="N24" t="n">
-        <v>74.96259622200748</v>
+        <v>78.11891606293396</v>
       </c>
       <c r="O24" t="n">
-        <v>78.11891606293409</v>
+        <v>29.92622196354034</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>78.11891606293396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36603,13 +36603,13 @@
         <v>59.4038813404951</v>
       </c>
       <c r="M26" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293398</v>
       </c>
       <c r="N26" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293396</v>
       </c>
       <c r="O26" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293396</v>
       </c>
       <c r="P26" t="n">
         <v>14.87188641486432</v>
@@ -36676,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>29.01770852812535</v>
       </c>
       <c r="L27" t="n">
-        <v>78.11891606293401</v>
+        <v>57.57207725236153</v>
       </c>
       <c r="M27" t="n">
         <v>46.08953479525906</v>
@@ -36688,10 +36688,10 @@
         <v>68.594885808589</v>
       </c>
       <c r="O27" t="n">
-        <v>78.11891606293401</v>
+        <v>29.92622196354034</v>
       </c>
       <c r="P27" t="n">
-        <v>38.39709168109334</v>
+        <v>78.11891606293396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36840,13 +36840,13 @@
         <v>59.4038813404951</v>
       </c>
       <c r="M29" t="n">
-        <v>78.11891606293409</v>
+        <v>78.11891606293396</v>
       </c>
       <c r="N29" t="n">
-        <v>78.11891606293409</v>
+        <v>78.11891606293396</v>
       </c>
       <c r="O29" t="n">
-        <v>78.11891606293409</v>
+        <v>78.11891606293398</v>
       </c>
       <c r="P29" t="n">
         <v>14.87188641486432</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>29.01770852812535</v>
       </c>
       <c r="L30" t="n">
         <v>14.99131829799379</v>
       </c>
       <c r="M30" t="n">
-        <v>69.49530817835877</v>
+        <v>46.08953479525906</v>
       </c>
       <c r="N30" t="n">
         <v>68.594885808589</v>
       </c>
       <c r="O30" t="n">
-        <v>78.11891606293409</v>
+        <v>72.50698091790807</v>
       </c>
       <c r="P30" t="n">
-        <v>78.11891606293409</v>
+        <v>78.11891606293396</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37077,13 +37077,13 @@
         <v>59.4038813404951</v>
       </c>
       <c r="M32" t="n">
-        <v>78.11891606293409</v>
+        <v>78.11891606293396</v>
       </c>
       <c r="N32" t="n">
-        <v>78.11891606293409</v>
+        <v>78.11891606293396</v>
       </c>
       <c r="O32" t="n">
-        <v>78.11891606293409</v>
+        <v>78.11891606293401</v>
       </c>
       <c r="P32" t="n">
         <v>14.87188641486432</v>
@@ -37153,19 +37153,19 @@
         <v>29.01770852812535</v>
       </c>
       <c r="L33" t="n">
-        <v>57.57207725236192</v>
+        <v>78.11891606293396</v>
       </c>
       <c r="M33" t="n">
-        <v>46.08953479525906</v>
+        <v>78.11891606293396</v>
       </c>
       <c r="N33" t="n">
         <v>68.594885808589</v>
       </c>
       <c r="O33" t="n">
-        <v>29.92622196354034</v>
+        <v>55.46891794822696</v>
       </c>
       <c r="P33" t="n">
-        <v>78.11891606293409</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37314,10 +37314,10 @@
         <v>59.4038813404951</v>
       </c>
       <c r="M35" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293403</v>
       </c>
       <c r="N35" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293403</v>
       </c>
       <c r="O35" t="n">
         <v>78.11891606293401</v>
@@ -37393,16 +37393,16 @@
         <v>14.99131829799379</v>
       </c>
       <c r="M36" t="n">
-        <v>69.4953081783586</v>
+        <v>69.49530817835864</v>
       </c>
       <c r="N36" t="n">
         <v>68.594885808589</v>
       </c>
       <c r="O36" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293403</v>
       </c>
       <c r="P36" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293403</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37551,10 +37551,10 @@
         <v>59.4038813404951</v>
       </c>
       <c r="M38" t="n">
-        <v>78.11891606293402</v>
+        <v>78.11891606293403</v>
       </c>
       <c r="N38" t="n">
-        <v>78.11891606293402</v>
+        <v>78.11891606293403</v>
       </c>
       <c r="O38" t="n">
         <v>78.11891606293401</v>
@@ -37627,19 +37627,19 @@
         <v>29.01770852812535</v>
       </c>
       <c r="L39" t="n">
-        <v>78.11891606293402</v>
+        <v>14.99131829799379</v>
       </c>
       <c r="M39" t="n">
-        <v>55.46891794822707</v>
+        <v>46.08953479525906</v>
       </c>
       <c r="N39" t="n">
         <v>68.594885808589</v>
       </c>
       <c r="O39" t="n">
-        <v>78.11891606293402</v>
+        <v>72.50698091790828</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>78.11891606293403</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37788,13 +37788,13 @@
         <v>59.4038813404951</v>
       </c>
       <c r="M41" t="n">
-        <v>78.11891606293403</v>
+        <v>68.594885808589</v>
       </c>
       <c r="N41" t="n">
-        <v>78.11891606293403</v>
+        <v>59.45566485744988</v>
       </c>
       <c r="O41" t="n">
-        <v>78.11891606293401</v>
+        <v>68.594885808589</v>
       </c>
       <c r="P41" t="n">
         <v>14.87188641486432</v>
@@ -37864,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>78.11891606293403</v>
+        <v>68.594885808589</v>
       </c>
       <c r="M42" t="n">
-        <v>78.11891606293403</v>
+        <v>46.08953479525906</v>
       </c>
       <c r="N42" t="n">
-        <v>74.96259622200742</v>
+        <v>68.594885808589</v>
       </c>
       <c r="O42" t="n">
-        <v>78.11891606293403</v>
+        <v>68.594885808589</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>19.73384047560918</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38019,19 +38019,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>0.6868284666479099</v>
       </c>
       <c r="L44" t="n">
         <v>59.4038813404951</v>
       </c>
       <c r="M44" t="n">
-        <v>68.93715823537599</v>
+        <v>68.594885808589</v>
       </c>
       <c r="N44" t="n">
-        <v>73.08288491279797</v>
+        <v>68.594885808589</v>
       </c>
       <c r="O44" t="n">
-        <v>73.08288491279797</v>
+        <v>59.4556648574499</v>
       </c>
       <c r="P44" t="n">
         <v>14.87188641486432</v>
@@ -38101,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>73.08288491279797</v>
+        <v>19.73384047560916</v>
       </c>
       <c r="M45" t="n">
-        <v>73.08288491279797</v>
+        <v>46.08953479525906</v>
       </c>
       <c r="N45" t="n">
-        <v>70.13004107793746</v>
+        <v>68.594885808589</v>
       </c>
       <c r="O45" t="n">
-        <v>73.08288491279797</v>
+        <v>68.594885808589</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>68.594885808589</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
